--- a/Blik/Requirements.xlsx
+++ b/Blik/Requirements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="390" windowWidth="12195" windowHeight="6330" tabRatio="731"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="12195" windowHeight="6270" tabRatio="731" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Procesflows" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1958" uniqueCount="1056">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2015" uniqueCount="1112">
   <si>
     <t>NVWA</t>
   </si>
@@ -2537,45 +2537,30 @@
     <t>Overtreding</t>
   </si>
   <si>
-    <t>Art. 5:1 lid 1 Awb</t>
-  </si>
-  <si>
     <t>Onder overtreding wordt verstaan een gedraging die in strijd is met het bepaalde bij of krachtens enig wettelijk voorschrift.</t>
   </si>
   <si>
     <t>Overtreder</t>
   </si>
   <si>
-    <t>Art. 5:1 lid 2 Awb</t>
-  </si>
-  <si>
     <t>Onder overtreder wordt verstaan: degene die de overtreding pleeft of medepleegt.</t>
   </si>
   <si>
     <t>Bestuurlijke sanctie</t>
   </si>
   <si>
-    <t>Art. 5:2 lid 1 sub a. Awb</t>
-  </si>
-  <si>
     <t>Onder bestuurlijke sanctie wordt verstaan: een door een bestuursorgaan wegens een overtreding opgelegde verplichting of onthouden aanspraak;</t>
   </si>
   <si>
     <t>Herstelsanctie</t>
   </si>
   <si>
-    <t>Art. 5:2 lid 1 sub b. Awb</t>
-  </si>
-  <si>
     <t>Onder herstelsanctie wordt verstaan: een bestuurlijke sanctie die strekt tot het geheel of gedeeltelijk ongedaan maken of beeindigen van een overtreding, tot het voorkomen van herhaling van een overtreding, dan wel tot het wegnemen of beperken van de gevolgen van een overtreding.</t>
   </si>
   <si>
     <t>Bestraffende sanctie</t>
   </si>
   <si>
-    <t>Art. 5:2 lid 1 sub c. Awb</t>
-  </si>
-  <si>
     <t>Onder bestraffende sanctie wordt verstaan: een bestuurlijke sanctie voor zover deze beoogt de overtreder leed toe te voegen.</t>
   </si>
   <si>
@@ -2597,9 +2582,6 @@
     <t>Toezichthouder</t>
   </si>
   <si>
-    <t>Art. 5:11 Awb</t>
-  </si>
-  <si>
     <t>Onder toezichthouder wordt verstaan: een persoon, bij of krachtens wettelijk voorschrift belast met het houden van toezicht op de naleving van het bepaalde bij of krachtens enig wettelijk voorschrift.</t>
   </si>
   <si>
@@ -2615,27 +2597,18 @@
     <t>Last onder bestuursdwang</t>
   </si>
   <si>
-    <t>Art. 5:21 Awb</t>
-  </si>
-  <si>
     <t>Onder last onder bestuursdwang wordt verstaan: een herstelsanctie, inhoudende een last tot geheel of gedeeltelijk herstel van de overtreding, en de bevoegdheid van het bestuursorgaan om de last door feitelijk handelen ten uitvoer te leggen, indien de last niet of niet tijdig wordt uitgevoerd.</t>
   </si>
   <si>
     <t>Last onder dwangsom</t>
   </si>
   <si>
-    <t>Art. 5:31d Awb</t>
-  </si>
-  <si>
     <t>Onder last onder dwangsom wordt verstaan: een herstelsanctie, inhoudende een last tot geheel of gedeeltelijk herstel van de overtreding, en de verplichting tot betaling van een geldsom indien de last niet of niet tijdig wordt uitgevoerd.</t>
   </si>
   <si>
     <t>Bestuurlijke boete</t>
   </si>
   <si>
-    <t>Art. 5:40 Awb</t>
-  </si>
-  <si>
     <t>Onder bestuurlijke boete wordt verstaan: de bestraffende sanctie, inhoudende een onvoorwaardelijke verplichting tot betaling van een geldsom.</t>
   </si>
   <si>
@@ -2690,9 +2663,6 @@
     <t>Mandaat</t>
   </si>
   <si>
-    <t>Art. 10:1 AwB</t>
-  </si>
-  <si>
     <t>Onder mandaat wordt verstaan: de bevoegdheid om in naam van een bestuursorgaan een besluit te nemen.</t>
   </si>
   <si>
@@ -2717,9 +2687,6 @@
     <t>Delegatie</t>
   </si>
   <si>
-    <t>Art. 10:13 AwB</t>
-  </si>
-  <si>
     <t>Onder delegatie wordt verstaan: het overdragen door een bestuursorgaan van zijn bevoegdheid tot het nemen van besluiten aan een ander die deze onder eigen verantwoordelijkheid uitoefent.</t>
   </si>
   <si>
@@ -3201,13 +3168,214 @@
   </si>
   <si>
     <t>leidinggevende</t>
+  </si>
+  <si>
+    <t>levensmiddelenwetgeving</t>
+  </si>
+  <si>
+    <t>de wettelijke en bestuursrechtelijke bepalingen met betrekking tot levensmiddelen in het algemeen en de voedselveiligheid in het bijzonder, zowel op het niveau van de Gemeenschap als op nationaal niveau. Deze term bestrijkt alle stadia van de productie, verwerking en distributie van levensmiddelen, alsmede van diervoeders die voor voedselproducerende dieren worden geproduceerd of daaraan worden vervoederd.</t>
+  </si>
+  <si>
+    <t>levensmiddelenbedrijf</t>
+  </si>
+  <si>
+    <t>onderneming, zowel publiek- als privaatrechtelijk, die al dan niet met winstoogmerk actief is in enig stadium van de productie, verwerking en distributie van levensmiddelen.</t>
+  </si>
+  <si>
+    <t>exploitant van een levensmiddelenbedrijf</t>
+  </si>
+  <si>
+    <t>natuurlijke persoon of rechtspersoon die verantwoordelijk is voor de naleving van de in de levensmiddelenwetgeving vastgestelde voorschriften in het levensmiddelenbedrijf waarover hij de leiding heeft.</t>
+  </si>
+  <si>
+    <t>diervoeders</t>
+  </si>
+  <si>
+    <t>alle stoffen en producten, inclusief additieven, verwerkt, gedeeltelijk verwerkt of onverwerkt, die bestemd zijn om te worden gebruikt voor orale vervoedering aan dieren.</t>
+  </si>
+  <si>
+    <t>diervoederbedrijf</t>
+  </si>
+  <si>
+    <t>onderneming, zowel publiek- als privaatrechtelijk, die, al dan niet met winstoogmerk, actief is in productie, vervaardiging, verwerking, opslag, vervoer of distributie van diervoeders, met inbegrip van producenten die diervoeders produceren, verwerken of opslaan met het oog op vervoedering aan dieren op het eigen bedrijf.</t>
+  </si>
+  <si>
+    <t>exploitant van een diervoederbedrijf</t>
+  </si>
+  <si>
+    <t>natuurlijke persoon of rechtspersoon die verantwoordelijk is voor de naleving van de in de levensmiddelenwetgeving vastgestelde voorschriften in het diervoederbedrijf waarover hij de leiding heeft.</t>
+  </si>
+  <si>
+    <t>detailhandel</t>
+  </si>
+  <si>
+    <t>het hanteren en/of verwerken van levensmiddelen en het opslaan daarvan op de plaats van verkoop of levering aan de eindverbruiker, inclusief distributieterminals, cateringdiensten, bedrijfskantines, institutionele maaltijdvoorziening, restaurants en andere soortgelijke diensten voor voedselvoorziening, winkels, distributiecentra voor supermarkten en groothandelsbedrijven.</t>
+  </si>
+  <si>
+    <t>in de handel brengen</t>
+  </si>
+  <si>
+    <t>het voorhanden hebben van levensmiddelen of diervoeders met het oog op de verkoop, met inbegrip van het ten verkoop aanbieden, of enige andere vorm van al dan niet gratis overdracht, alsmede de eigenlijke verkoop, distributie en andere vormen van overdracht zelf.</t>
+  </si>
+  <si>
+    <t>risico</t>
+  </si>
+  <si>
+    <t>functie van de kans op een nadelig gezondheidseffect en de ernst van dat effect, voortvloeiend uit een gevaar.</t>
+  </si>
+  <si>
+    <t>risicoanalyse</t>
+  </si>
+  <si>
+    <t>proces bestaande uit drie samenhangende onderdelen: risicobeoordeling, risicomanagement en risicocommunicatie.</t>
+  </si>
+  <si>
+    <t>risicobeoordeling</t>
+  </si>
+  <si>
+    <t>wetenschappelijk gefundeerd proces, bestaande uit vier stappen: gevareninventarisatie, gevarenkarakterisatie, blootstellingsschatting en risicokarakterisatie.</t>
+  </si>
+  <si>
+    <t>risicomanagement</t>
+  </si>
+  <si>
+    <t>van risicobeoordeling te onderscheiden proces waarin de beleidsalternatieven in overleg met de belanghebbenden tegen elkaar worden afgewogen, rekening houdende met de risicobeoordeling en andere legitieme factoren, en, zo nodig, de passende preventie- en beheersingsmaatregelen worden gekozen.</t>
+  </si>
+  <si>
+    <t>risicocommunicatie</t>
+  </si>
+  <si>
+    <t>interactieve uitwisseling van informatie en standpunten gedurende het hele risicoanalyseproces betreffende gevaren en risico's, met de risico's verband houdende factoren en risicopercepties, tussen risicobeoordelaars, risicomanagers, consumenten, levensmiddelen- en diervoederbedrijven, de academische wereld en andere belanghebbenden, met inbegrip van de toelichting van de resultaten van de risicobeoordeling en de grondslag voor risicomanagementbeslissingen.</t>
+  </si>
+  <si>
+    <t>gevaar</t>
+  </si>
+  <si>
+    <t>biologisch, chemisch of fysisch agens in een levensmiddel of diervoeder, of de toestand van een levensmiddel of diervoeder, met mogelijk nadelige gevolgen voor de gezondheid.</t>
+  </si>
+  <si>
+    <t>traceerbaarheid</t>
+  </si>
+  <si>
+    <t>mogelijkheid om een levensmiddel, diervoeder, voedselproducerend dier of stof die bestemd is om in een levensmiddel of diervoeder te worden verwerkt of waarvan kan worden verwacht dat zij daarin wordt verwerkt, door alle stadia van de productie, verwerking en distributie te traceren en te volgen.</t>
+  </si>
+  <si>
+    <t>stadia van de productie, verwerking en distributie</t>
+  </si>
+  <si>
+    <t>alle stadia, met inbegrip van invoer, vanaf de primaire productie van een levensmiddel tot en met opslag, vervoer, verkoop of levering daarvan aan de eindverbruiker en, voorzover van toepassing, invoer, productie, vervaardiging, opslag, vervoer, distributie, verkoop en levering van diervoeder.</t>
+  </si>
+  <si>
+    <t>primaire productie</t>
+  </si>
+  <si>
+    <t>de productie, het fokken en het telen van primaire producten tot en met het oogsten, het melken en de productie van landbouwhuisdieren, voorafgaande aan het slachten; dit begrip omvat tevens de jacht, de visvangst, en de oogst van wilde producten.</t>
+  </si>
+  <si>
+    <t>eindverbruiker</t>
+  </si>
+  <si>
+    <t>de laatste verbruiker van een levensmiddel die het niet als deel van een levensmiddelenexploitatie of -activiteit zal gebruiken.</t>
+  </si>
+  <si>
+    <t>574</t>
+  </si>
+  <si>
+    <t>575</t>
+  </si>
+  <si>
+    <t>576</t>
+  </si>
+  <si>
+    <t>577</t>
+  </si>
+  <si>
+    <t>578</t>
+  </si>
+  <si>
+    <t>579</t>
+  </si>
+  <si>
+    <t>580</t>
+  </si>
+  <si>
+    <t>581</t>
+  </si>
+  <si>
+    <t>582</t>
+  </si>
+  <si>
+    <t>583</t>
+  </si>
+  <si>
+    <t>584</t>
+  </si>
+  <si>
+    <t>Begrip</t>
+  </si>
+  <si>
+    <t>Definitie</t>
+  </si>
+  <si>
+    <t>585</t>
+  </si>
+  <si>
+    <t>586</t>
+  </si>
+  <si>
+    <t>587</t>
+  </si>
+  <si>
+    <t>588</t>
+  </si>
+  <si>
+    <t>589</t>
+  </si>
+  <si>
+    <t>590</t>
+  </si>
+  <si>
+    <t>591</t>
+  </si>
+  <si>
+    <t>592</t>
+  </si>
+  <si>
+    <t>593</t>
+  </si>
+  <si>
+    <t>594</t>
+  </si>
+  <si>
+    <t>595</t>
+  </si>
+  <si>
+    <t>596</t>
+  </si>
+  <si>
+    <t>597</t>
+  </si>
+  <si>
+    <t>598</t>
+  </si>
+  <si>
+    <t>599</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>601</t>
+  </si>
+  <si>
+    <t>602</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3239,6 +3407,11 @@
       <b/>
       <sz val="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -3282,7 +3455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3317,6 +3490,8 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -3688,8 +3863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3718,7 +3893,7 @@
         <v>98</v>
       </c>
       <c r="G1" t="s">
-        <v>1019</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -3741,7 +3916,7 @@
         <v>110</v>
       </c>
       <c r="G2" t="s">
-        <v>1020</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -3761,7 +3936,7 @@
         <v>104</v>
       </c>
       <c r="G3" t="s">
-        <v>961</v>
+        <v>950</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -3850,7 +4025,7 @@
         <v>108</v>
       </c>
       <c r="G10" t="s">
-        <v>1022</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -3873,7 +4048,7 @@
         <v>104</v>
       </c>
       <c r="G11" t="s">
-        <v>961</v>
+        <v>950</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -3936,7 +4111,7 @@
         <v>106</v>
       </c>
       <c r="G14" t="s">
-        <v>1024</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -3951,7 +4126,7 @@
       </c>
       <c r="D15" s="1"/>
       <c r="G15" t="s">
-        <v>1024</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -3966,7 +4141,7 @@
       </c>
       <c r="D16" s="1"/>
       <c r="G16" t="s">
-        <v>1024</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -3981,7 +4156,7 @@
       </c>
       <c r="D17" s="1"/>
       <c r="G17" t="s">
-        <v>970</v>
+        <v>959</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -3996,7 +4171,7 @@
       </c>
       <c r="D18" s="1"/>
       <c r="G18" t="s">
-        <v>970</v>
+        <v>959</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -4039,7 +4214,7 @@
         <v>111</v>
       </c>
       <c r="G20" t="s">
-        <v>962</v>
+        <v>951</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -4054,7 +4229,7 @@
       </c>
       <c r="D21" s="1"/>
       <c r="G21" t="s">
-        <v>962</v>
+        <v>951</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -4069,7 +4244,7 @@
       </c>
       <c r="D22" s="1"/>
       <c r="G22" t="s">
-        <v>962</v>
+        <v>951</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -4092,7 +4267,7 @@
         <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>970</v>
+        <v>959</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -4107,7 +4282,7 @@
       </c>
       <c r="D24" s="1"/>
       <c r="G24" t="s">
-        <v>970</v>
+        <v>959</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -4122,7 +4297,7 @@
       </c>
       <c r="D25" s="1"/>
       <c r="G25" t="s">
-        <v>970</v>
+        <v>959</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -4137,7 +4312,7 @@
       </c>
       <c r="D26" s="1"/>
       <c r="G26" t="s">
-        <v>1021</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -4160,7 +4335,7 @@
         <v>105</v>
       </c>
       <c r="G27" t="s">
-        <v>1023</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -4175,7 +4350,7 @@
       </c>
       <c r="D28" s="1"/>
       <c r="G28" t="s">
-        <v>1023</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -4190,7 +4365,7 @@
       </c>
       <c r="D29" s="1"/>
       <c r="G29" t="s">
-        <v>1023</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -4205,7 +4380,7 @@
       </c>
       <c r="D30" s="1"/>
       <c r="G30" t="s">
-        <v>1023</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -4387,7 +4562,7 @@
         <v>40</v>
       </c>
       <c r="G43" t="s">
-        <v>971</v>
+        <v>960</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -4401,7 +4576,7 @@
         <v>40</v>
       </c>
       <c r="G44" t="s">
-        <v>972</v>
+        <v>961</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -4438,10 +4613,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>904</v>
+        <v>893</v>
       </c>
       <c r="C1" t="s">
         <v>95</v>
@@ -4452,7 +4627,7 @@
         <v>116</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>973</v>
+        <v>962</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -4460,151 +4635,151 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>980</v>
+        <v>969</v>
       </c>
       <c r="C3" t="s">
-        <v>897</v>
+        <v>886</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>981</v>
+        <v>970</v>
       </c>
       <c r="C4" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>971</v>
+      </c>
+      <c r="C5" t="s">
         <v>908</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>982</v>
-      </c>
-      <c r="C5" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>898</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>972</v>
+      </c>
+      <c r="C6" t="s">
         <v>909</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>983</v>
-      </c>
-      <c r="C6" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>899</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>973</v>
+      </c>
+      <c r="C7" t="s">
         <v>910</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>984</v>
-      </c>
-      <c r="C7" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>911</v>
+        <v>900</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>985</v>
+        <v>974</v>
       </c>
       <c r="C8" t="s">
-        <v>899</v>
+        <v>888</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>986</v>
+        <v>975</v>
       </c>
       <c r="C9" t="s">
-        <v>900</v>
+        <v>889</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>987</v>
+        <v>976</v>
       </c>
       <c r="C10" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="D10" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>914</v>
+        <v>903</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>988</v>
+        <v>977</v>
       </c>
       <c r="C11" t="s">
-        <v>902</v>
+        <v>891</v>
       </c>
       <c r="D11" t="s">
-        <v>903</v>
+        <v>892</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>915</v>
+        <v>904</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>989</v>
+        <v>978</v>
       </c>
       <c r="C12" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>916</v>
+        <v>905</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>990</v>
+        <v>979</v>
       </c>
       <c r="C13" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>917</v>
+        <v>906</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>991</v>
+        <v>980</v>
       </c>
       <c r="C14" t="s">
-        <v>925</v>
+        <v>914</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>992</v>
+        <v>981</v>
       </c>
       <c r="C15" t="s">
-        <v>926</v>
+        <v>915</v>
       </c>
     </row>
   </sheetData>
@@ -4628,23 +4803,23 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>976</v>
+        <v>965</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>95</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>939</v>
+        <v>928</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>904</v>
+        <v>893</v>
       </c>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>975</v>
+        <v>964</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>3</v>
@@ -4653,148 +4828,148 @@
         <v>3</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>973</v>
+        <v>962</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>1031</v>
+        <v>1020</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>1011</v>
+        <v>1000</v>
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>1032</v>
+        <v>1021</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>938</v>
+        <v>927</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>1012</v>
+        <v>1001</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>1033</v>
+        <v>1022</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>1027</v>
+        <v>1016</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>101</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>1013</v>
+        <v>1002</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>1034</v>
+        <v>1023</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>931</v>
+        <v>920</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>932</v>
+        <v>921</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>1014</v>
+        <v>1003</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>1035</v>
+        <v>1024</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>933</v>
+        <v>922</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>934</v>
+        <v>923</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>1015</v>
+        <v>1004</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>1036</v>
+        <v>1025</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>935</v>
+        <v>924</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>936</v>
+        <v>925</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>1016</v>
+        <v>1005</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>1037</v>
+        <v>1026</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>937</v>
+        <v>926</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>1017</v>
+        <v>1006</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>1038</v>
+        <v>1027</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>940</v>
+        <v>929</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>977</v>
+        <v>966</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>1018</v>
+        <v>1007</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>1039</v>
+        <v>1028</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>1025</v>
+        <v>1014</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>1030</v>
+        <v>1019</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
@@ -4802,13 +4977,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>1040</v>
+        <v>1029</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>1028</v>
+        <v>1017</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>1029</v>
+        <v>1018</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -4816,10 +4991,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>1041</v>
+        <v>1030</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>1026</v>
+        <v>1015</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -4851,8 +5026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K194"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="E29" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4873,13 +5048,13 @@
         <v>529</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1054</v>
+        <v>1043</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1050</v>
+        <v>1039</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1053</v>
+        <v>1042</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>719</v>
@@ -4911,10 +5086,10 @@
         <v>791</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1051</v>
+        <v>1040</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1052</v>
+        <v>1041</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
@@ -4946,10 +5121,10 @@
         <v>224</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1042</v>
+        <v>1031</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1047</v>
+        <v>1036</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>118</v>
@@ -4976,13 +5151,13 @@
         <v>531</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>974</v>
+        <v>963</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1042</v>
+        <v>1031</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1047</v>
+        <v>1036</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>118</v>
@@ -5009,13 +5184,13 @@
         <v>532</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>974</v>
+        <v>963</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>1042</v>
+        <v>1031</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1047</v>
+        <v>1036</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>118</v>
@@ -5045,10 +5220,10 @@
         <v>224</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1044</v>
+        <v>1033</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1043</v>
+        <v>1032</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>118</v>
@@ -5078,10 +5253,10 @@
         <v>119</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>1042</v>
+        <v>1031</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1043</v>
+        <v>1032</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>118</v>
@@ -5108,13 +5283,13 @@
         <v>535</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1055</v>
+        <v>1044</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>1042</v>
+        <v>1031</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1043</v>
+        <v>1032</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>118</v>
@@ -5142,10 +5317,10 @@
         <v>119</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>1045</v>
+        <v>1034</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1046</v>
+        <v>1035</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>118</v>
@@ -5175,10 +5350,10 @@
         <v>224</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>1044</v>
+        <v>1033</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1047</v>
+        <v>1036</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>118</v>
@@ -5208,10 +5383,10 @@
         <v>119</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>1044</v>
+        <v>1033</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>1047</v>
+        <v>1036</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>118</v>
@@ -5241,10 +5416,10 @@
         <v>119</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1044</v>
+        <v>1033</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>1047</v>
+        <v>1036</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>118</v>
@@ -5274,10 +5449,10 @@
         <v>224</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>1044</v>
+        <v>1033</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>1047</v>
+        <v>1036</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>118</v>
@@ -5307,10 +5482,10 @@
         <v>186</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>1044</v>
+        <v>1033</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>1047</v>
+        <v>1036</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>118</v>
@@ -5342,10 +5517,10 @@
         <v>119</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>1044</v>
+        <v>1033</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>1047</v>
+        <v>1036</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>118</v>
@@ -5377,10 +5552,10 @@
         <v>119</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>1044</v>
+        <v>1033</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>1047</v>
+        <v>1036</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>118</v>
@@ -5410,10 +5585,10 @@
         <v>119</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>1044</v>
+        <v>1033</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>1047</v>
+        <v>1036</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>118</v>
@@ -5443,10 +5618,10 @@
         <v>224</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>1044</v>
+        <v>1033</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>1047</v>
+        <v>1036</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>118</v>
@@ -5476,10 +5651,10 @@
         <v>119</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>1044</v>
+        <v>1033</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>1047</v>
+        <v>1036</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>118</v>
@@ -5511,10 +5686,10 @@
         <v>224</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>1044</v>
+        <v>1033</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>1047</v>
+        <v>1036</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>118</v>
@@ -5544,10 +5719,10 @@
         <v>224</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>1048</v>
+        <v>1037</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>1049</v>
+        <v>1038</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>118</v>
@@ -5574,7 +5749,7 @@
         <v>549</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>974</v>
+        <v>963</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -5603,7 +5778,7 @@
         <v>550</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>974</v>
+        <v>963</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -6337,7 +6512,7 @@
         <v>576</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>974</v>
+        <v>963</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -6451,7 +6626,7 @@
         <v>580</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>974</v>
+        <v>963</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -6629,7 +6804,7 @@
         <v>586</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>974</v>
+        <v>963</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -6656,7 +6831,7 @@
         <v>587</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>978</v>
+        <v>967</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -6685,7 +6860,7 @@
         <v>588</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>978</v>
+        <v>967</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -6714,7 +6889,7 @@
         <v>589</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>974</v>
+        <v>963</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -6801,7 +6976,7 @@
         <v>592</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>978</v>
+        <v>967</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -6855,7 +7030,7 @@
         <v>594</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>978</v>
+        <v>967</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -6884,7 +7059,7 @@
         <v>595</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>974</v>
+        <v>963</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -7031,7 +7206,7 @@
         <v>600</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>974</v>
+        <v>963</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -7060,7 +7235,7 @@
         <v>601</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>978</v>
+        <v>967</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -7089,7 +7264,7 @@
         <v>602</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>974</v>
+        <v>963</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -7120,7 +7295,7 @@
         <v>603</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>974</v>
+        <v>963</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -7151,7 +7326,7 @@
         <v>604</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>978</v>
+        <v>967</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -7180,7 +7355,7 @@
         <v>605</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>974</v>
+        <v>963</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -7209,7 +7384,7 @@
         <v>606</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>974</v>
+        <v>963</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -7238,7 +7413,7 @@
         <v>607</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>974</v>
+        <v>963</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -7269,7 +7444,7 @@
         <v>608</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>974</v>
+        <v>963</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -7327,7 +7502,7 @@
         <v>610</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>974</v>
+        <v>963</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -7354,7 +7529,7 @@
         <v>611</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>979</v>
+        <v>968</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
@@ -7383,7 +7558,7 @@
         <v>612</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>974</v>
+        <v>963</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
@@ -10400,7 +10575,7 @@
         <v>95</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>904</v>
+        <v>893</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>830</v>
@@ -10417,7 +10592,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>973</v>
+        <v>962</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>3</v>
@@ -10454,7 +10629,7 @@
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12" t="s">
-        <v>993</v>
+        <v>982</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>831</v>
@@ -10469,7 +10644,7 @@
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12" t="s">
-        <v>994</v>
+        <v>983</v>
       </c>
       <c r="E6" s="12"/>
     </row>
@@ -10622,14 +10797,14 @@
         <v>829</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>927</v>
+        <v>916</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12" t="s">
-        <v>995</v>
+        <v>984</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>928</v>
+        <v>917</v>
       </c>
     </row>
   </sheetData>
@@ -10642,7 +10817,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C17"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10652,10 +10827,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>957</v>
+        <v>946</v>
       </c>
       <c r="B1" t="s">
-        <v>904</v>
+        <v>893</v>
       </c>
       <c r="C1" t="s">
         <v>95</v>
@@ -10663,10 +10838,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>956</v>
+        <v>945</v>
       </c>
       <c r="B2" t="s">
-        <v>973</v>
+        <v>962</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -10674,167 +10849,167 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>958</v>
+        <v>947</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>996</v>
+        <v>985</v>
       </c>
       <c r="C3" t="s">
-        <v>941</v>
+        <v>930</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>959</v>
+        <v>948</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>997</v>
+        <v>986</v>
       </c>
       <c r="C4" t="s">
-        <v>942</v>
+        <v>931</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>960</v>
+        <v>949</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>998</v>
+        <v>987</v>
       </c>
       <c r="C5" t="s">
-        <v>943</v>
+        <v>932</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>961</v>
+        <v>950</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>999</v>
+        <v>988</v>
       </c>
       <c r="C6" t="s">
-        <v>944</v>
+        <v>933</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>962</v>
+        <v>951</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>1000</v>
+        <v>989</v>
       </c>
       <c r="C7" t="s">
-        <v>945</v>
+        <v>934</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>963</v>
+        <v>952</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>1001</v>
+        <v>990</v>
       </c>
       <c r="C8" t="s">
-        <v>946</v>
+        <v>935</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>964</v>
+        <v>953</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>1002</v>
+        <v>991</v>
       </c>
       <c r="C9" t="s">
-        <v>947</v>
+        <v>936</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>965</v>
+        <v>954</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>1003</v>
+        <v>992</v>
       </c>
       <c r="C10" t="s">
-        <v>948</v>
+        <v>937</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>966</v>
+        <v>955</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>1004</v>
+        <v>993</v>
       </c>
       <c r="C11" t="s">
-        <v>949</v>
+        <v>938</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>967</v>
+        <v>956</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>1005</v>
+        <v>994</v>
       </c>
       <c r="C12" t="s">
-        <v>950</v>
+        <v>939</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>968</v>
+        <v>957</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>1006</v>
+        <v>995</v>
       </c>
       <c r="C13" t="s">
-        <v>951</v>
+        <v>940</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>969</v>
+        <v>958</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>1007</v>
+        <v>996</v>
       </c>
       <c r="C14" t="s">
-        <v>952</v>
+        <v>941</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>970</v>
+        <v>959</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>1008</v>
+        <v>997</v>
       </c>
       <c r="C15" t="s">
-        <v>953</v>
+        <v>942</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>971</v>
+        <v>960</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>1009</v>
+        <v>998</v>
       </c>
       <c r="C16" t="s">
-        <v>954</v>
+        <v>943</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>972</v>
+        <v>961</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>1010</v>
+        <v>999</v>
       </c>
       <c r="C17" t="s">
-        <v>955</v>
+        <v>944</v>
       </c>
     </row>
   </sheetData>
@@ -10860,22 +11035,22 @@
         <v>719</v>
       </c>
       <c r="C1" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="D1" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="E1" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="F1" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="G1" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="H1" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -10886,19 +11061,19 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>973</v>
+        <v>962</v>
       </c>
       <c r="D2" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="E2" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="F2" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="G2" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="H2" t="s">
         <v>4</v>
@@ -10911,133 +11086,342 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D13"/>
+  <dimension ref="B2:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>962</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1093</v>
+      </c>
+    </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>833</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="14" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D3" t="s">
         <v>834</v>
-      </c>
-      <c r="D3" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>835</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D4" t="s">
         <v>836</v>
-      </c>
-      <c r="C4" t="s">
-        <v>837</v>
-      </c>
-      <c r="D4" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>839</v>
-      </c>
-      <c r="C5" t="s">
-        <v>840</v>
+        <v>837</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>1083</v>
       </c>
       <c r="D5" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>842</v>
-      </c>
-      <c r="C6" t="s">
-        <v>843</v>
+        <v>839</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>1084</v>
       </c>
       <c r="D6" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>845</v>
-      </c>
-      <c r="C7" t="s">
-        <v>846</v>
+        <v>841</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>1085</v>
       </c>
       <c r="D7" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>853</v>
-      </c>
-      <c r="C8" t="s">
-        <v>854</v>
+        <v>848</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>1086</v>
       </c>
       <c r="D8" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>859</v>
-      </c>
-      <c r="C9" t="s">
-        <v>860</v>
+        <v>853</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>1087</v>
       </c>
       <c r="D9" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>862</v>
-      </c>
-      <c r="C10" t="s">
-        <v>863</v>
+        <v>855</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>1088</v>
       </c>
       <c r="D10" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>865</v>
-      </c>
-      <c r="C11" t="s">
-        <v>866</v>
+        <v>857</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>1089</v>
       </c>
       <c r="D11" t="s">
-        <v>867</v>
+        <v>858</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>884</v>
-      </c>
-      <c r="C12" t="s">
-        <v>885</v>
+        <v>875</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>1090</v>
       </c>
       <c r="D12" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>893</v>
-      </c>
-      <c r="C13" t="s">
-        <v>894</v>
+        <v>883</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>1091</v>
       </c>
       <c r="D13" t="s">
-        <v>895</v>
+        <v>884</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1080</v>
       </c>
     </row>
   </sheetData>
@@ -11057,34 +11441,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="B1" t="s">
-        <v>870</v>
+        <v>861</v>
       </c>
       <c r="C1" t="s">
-        <v>872</v>
+        <v>863</v>
       </c>
       <c r="D1" t="s">
         <v>719</v>
       </c>
       <c r="E1" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="F1" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
       <c r="G1" t="s">
-        <v>878</v>
+        <v>869</v>
       </c>
       <c r="H1" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="I1" t="s">
-        <v>881</v>
+        <v>872</v>
       </c>
       <c r="J1" t="s">
-        <v>882</v>
+        <v>873</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -11092,7 +11476,7 @@
         <v>798</v>
       </c>
       <c r="B2" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -11101,36 +11485,36 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>876</v>
+        <v>867</v>
       </c>
       <c r="F2" t="s">
-        <v>876</v>
+        <v>867</v>
       </c>
       <c r="G2" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="H2" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="I2" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="J2" t="s">
-        <v>883</v>
+        <v>874</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
       <c r="C3" t="s">
-        <v>874</v>
+        <v>865</v>
       </c>
       <c r="D3" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="E3" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
     </row>
   </sheetData>
@@ -11148,24 +11532,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="B1" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
       <c r="C1" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="B2" t="s">
-        <v>884</v>
+        <v>875</v>
       </c>
       <c r="C2" t="s">
-        <v>876</v>
+        <v>867</v>
       </c>
     </row>
   </sheetData>
@@ -11183,27 +11567,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="B1" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="C1" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="D1" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="B2" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="C2" t="s">
-        <v>876</v>
+        <v>867</v>
       </c>
     </row>
   </sheetData>

--- a/Blik/Requirements.xlsx
+++ b/Blik/Requirements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="12195" windowHeight="6270" tabRatio="731" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="12195" windowHeight="6270" tabRatio="731"/>
   </bookViews>
   <sheets>
     <sheet name="Procesflows" sheetId="5" r:id="rId1"/>
@@ -41,93 +41,33 @@
     <t>Datum</t>
   </si>
   <si>
-    <t>PF.01</t>
-  </si>
-  <si>
     <t>Risicobeoordeling en –Communicatie</t>
   </si>
   <si>
-    <t>PF.10</t>
-  </si>
-  <si>
     <t>Geprogrammeerde Handhaving</t>
   </si>
   <si>
-    <t>PF.11</t>
-  </si>
-  <si>
     <t>Externe werkopdracht</t>
   </si>
   <si>
-    <t>PF.13</t>
-  </si>
-  <si>
-    <t>Client import/Export</t>
-  </si>
-  <si>
-    <t>PF.14</t>
-  </si>
-  <si>
     <t>Keuren</t>
   </si>
   <si>
-    <t>PF.12</t>
-  </si>
-  <si>
-    <t>PF.16</t>
-  </si>
-  <si>
-    <t>PF.06</t>
-  </si>
-  <si>
     <t>Integrale handhavingsplannen</t>
   </si>
   <si>
-    <t>PF.07</t>
-  </si>
-  <si>
     <t>Handhavingscommunicatie</t>
   </si>
   <si>
-    <t>PF.15</t>
-  </si>
-  <si>
     <t>Accepteren en beheren kwaliteitssystemen</t>
   </si>
   <si>
-    <t>PF.17</t>
-  </si>
-  <si>
     <t>Laboratorium</t>
   </si>
   <si>
-    <t>PF.19</t>
-  </si>
-  <si>
-    <t>PF.18</t>
-  </si>
-  <si>
-    <t>PF.20</t>
-  </si>
-  <si>
-    <t>PF.08</t>
-  </si>
-  <si>
-    <t>PF.09</t>
-  </si>
-  <si>
     <t>Strategievorming</t>
   </si>
   <si>
-    <t>PF.02</t>
-  </si>
-  <si>
-    <t>PF.04</t>
-  </si>
-  <si>
-    <t>PF.05</t>
-  </si>
-  <si>
     <t>Beleidsontwikkeling en evaluatie</t>
   </si>
   <si>
@@ -149,12 +89,6 @@
     <t>Innovatie</t>
   </si>
   <si>
-    <t>PF.21</t>
-  </si>
-  <si>
-    <t>PF.22</t>
-  </si>
-  <si>
     <t>Kennisontwikkeling</t>
   </si>
   <si>
@@ -176,15 +110,6 @@
     <t>Van aanvraag tot levering (verleningen)</t>
   </si>
   <si>
-    <t>PF.04.01</t>
-  </si>
-  <si>
-    <t>PF.04.02</t>
-  </si>
-  <si>
-    <t>PF.04.03</t>
-  </si>
-  <si>
     <t>Ontwikkelen en evalueren handhavingsbeleid</t>
   </si>
   <si>
@@ -194,18 +119,6 @@
     <t>Ontwikkelen en evalueren organisatiebeleid</t>
   </si>
   <si>
-    <t>PF.10.01</t>
-  </si>
-  <si>
-    <t>PF.10.02</t>
-  </si>
-  <si>
-    <t>PF.10.03</t>
-  </si>
-  <si>
-    <t>PF.10.04</t>
-  </si>
-  <si>
     <t>Risicogericht fysiek toezicht</t>
   </si>
   <si>
@@ -218,27 +131,12 @@
     <t>Onderhoud vergunningen</t>
   </si>
   <si>
-    <t>PF.12.01</t>
-  </si>
-  <si>
-    <t>PF.12.02</t>
-  </si>
-  <si>
     <t>Nationale Meldingen</t>
   </si>
   <si>
     <t>Internationale Meldingen</t>
   </si>
   <si>
-    <t>PF.13.01</t>
-  </si>
-  <si>
-    <t>PF.13.02</t>
-  </si>
-  <si>
-    <t>PF.13.03</t>
-  </si>
-  <si>
     <t>Registreren</t>
   </si>
   <si>
@@ -248,15 +146,6 @@
     <t>Verlenen Vergunning</t>
   </si>
   <si>
-    <t>PF.14.01</t>
-  </si>
-  <si>
-    <t>PF.14.02</t>
-  </si>
-  <si>
-    <t>PF.14.03</t>
-  </si>
-  <si>
     <t>Keuring slachtproces</t>
   </si>
   <si>
@@ -266,15 +155,6 @@
     <t>Importcontroles</t>
   </si>
   <si>
-    <t>PF.15.01</t>
-  </si>
-  <si>
-    <t>PF.15.02</t>
-  </si>
-  <si>
-    <t>PF.15.03</t>
-  </si>
-  <si>
     <t>Accepteren kwaliteitssystemen</t>
   </si>
   <si>
@@ -284,15 +164,6 @@
     <t>Herbeoordeling kwaliteitssysteem</t>
   </si>
   <si>
-    <t>PF.16.01</t>
-  </si>
-  <si>
-    <t>PF.16.02</t>
-  </si>
-  <si>
-    <t>PF.16.03</t>
-  </si>
-  <si>
     <t>Behandelen klantvraag</t>
   </si>
   <si>
@@ -335,31 +206,13 @@
     <t>Postbus,website</t>
   </si>
   <si>
-    <t>IBP,IBP-planning/roostering,MOS,IBP-relatiegegevens,IBP-registratie uitslag,Prisma,Excel,Mail,PDF,MBS,Barcodestickers,telefoon,Monsterfinder,Lims,ICSMS</t>
-  </si>
-  <si>
     <t>Office</t>
   </si>
   <si>
-    <t>M-Spin</t>
-  </si>
-  <si>
-    <t>MOS,intranet,Excel,Spin,Spin-bedrijvenbak,Spin-L&amp;N,Maptiv,ISI,Formdesk,digitaal dossier</t>
-  </si>
-  <si>
-    <t>MOS,mail,Diezies,SMS alert,MrvB D.L.,digitaal dossier,I&amp;R,kip,GDI,digidos,Spin,Prisma</t>
-  </si>
-  <si>
     <t>Office,Spin,ISI</t>
   </si>
   <si>
-    <t>Spin,Riskbox (RACX 2015/Access),Mail,Office-excel,digitaal dossier,rabbit,SMG,APEX,Cros (voorheen Ebs),Fyscon,Share intern en met externen</t>
-  </si>
-  <si>
     <t>[Voorziening,]</t>
-  </si>
-  <si>
-    <t>Mail,www,fax,telefoon,post,App social media,MOS,form desk,outlook (App),voice log,ISI,Spin,Digitaal dossier,I&amp;R,PDF</t>
   </si>
   <si>
     <t>wens</t>
@@ -3369,6 +3222,153 @@
   </si>
   <si>
     <t>602</t>
+  </si>
+  <si>
+    <t>PF 01</t>
+  </si>
+  <si>
+    <t>PF 02</t>
+  </si>
+  <si>
+    <t>PF 04</t>
+  </si>
+  <si>
+    <t>PF 04 01</t>
+  </si>
+  <si>
+    <t>PF 04 02</t>
+  </si>
+  <si>
+    <t>PF 04 03</t>
+  </si>
+  <si>
+    <t>PF 05</t>
+  </si>
+  <si>
+    <t>PF 06</t>
+  </si>
+  <si>
+    <t>PF 07</t>
+  </si>
+  <si>
+    <t>PF 08</t>
+  </si>
+  <si>
+    <t>PF 09</t>
+  </si>
+  <si>
+    <t>PF 10</t>
+  </si>
+  <si>
+    <t>PF 10 01</t>
+  </si>
+  <si>
+    <t>PF 10 02</t>
+  </si>
+  <si>
+    <t>PF 10 03</t>
+  </si>
+  <si>
+    <t>PF 10 04</t>
+  </si>
+  <si>
+    <t>PF 11</t>
+  </si>
+  <si>
+    <t>PF 12</t>
+  </si>
+  <si>
+    <t>PF 12 01</t>
+  </si>
+  <si>
+    <t>PF 12 02</t>
+  </si>
+  <si>
+    <t>PF 13</t>
+  </si>
+  <si>
+    <t>PF 13 01</t>
+  </si>
+  <si>
+    <t>PF 13 02</t>
+  </si>
+  <si>
+    <t>PF 13 03</t>
+  </si>
+  <si>
+    <t>PF 14</t>
+  </si>
+  <si>
+    <t>PF 14 01</t>
+  </si>
+  <si>
+    <t>PF 14 02</t>
+  </si>
+  <si>
+    <t>PF 14 03</t>
+  </si>
+  <si>
+    <t>PF 15</t>
+  </si>
+  <si>
+    <t>PF 15 01</t>
+  </si>
+  <si>
+    <t>PF 15 02</t>
+  </si>
+  <si>
+    <t>PF 15 03</t>
+  </si>
+  <si>
+    <t>PF 16</t>
+  </si>
+  <si>
+    <t>PF 16 01</t>
+  </si>
+  <si>
+    <t>PF 16 02</t>
+  </si>
+  <si>
+    <t>PF 16 03</t>
+  </si>
+  <si>
+    <t>PF 17</t>
+  </si>
+  <si>
+    <t>PF 18</t>
+  </si>
+  <si>
+    <t>PF 19</t>
+  </si>
+  <si>
+    <t>PF 20</t>
+  </si>
+  <si>
+    <t>PF 21</t>
+  </si>
+  <si>
+    <t>PF 22</t>
+  </si>
+  <si>
+    <t>Client Import Export</t>
+  </si>
+  <si>
+    <t>M Spin</t>
+  </si>
+  <si>
+    <t>Spin,Riskbox,Mail,MS Excel,digitaal dossier,rabbit,SMG,APEX,Cros,Fyscon,Share intern en met externen</t>
+  </si>
+  <si>
+    <t>MOS,intranet,Excel,Spin,Spin bedrijvenbak,Spin LenN,Maptiv,ISI,Formdesk,digitaal dossier</t>
+  </si>
+  <si>
+    <t>Mail,www,fax,telefoon,post,App social media,MOS,form desk,outlook,voice log,ISI,Spin,Digitaal dossier,IenR,PDF</t>
+  </si>
+  <si>
+    <t>IBP,IBP planning roostering,MOS,IBP relatiegegevens,IBP registratie uitslag,Prisma,Excel,Mail,PDF,MBS,Barcodestickers,telefoon,Monsterfinder,Lims,ICSMS</t>
+  </si>
+  <si>
+    <t>MOS,mail,Diezies,SMS alert,MrvB D L,digitaal dossier,IenR,kip,GDI,digidos,Spin,Prisma</t>
   </si>
 </sst>
 </file>
@@ -3863,8 +3863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3875,30 +3875,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="F1" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="G1" t="s">
-        <v>1008</v>
+        <v>959</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -3907,113 +3907,113 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="G2" t="s">
-        <v>1009</v>
+        <v>960</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="G3" t="s">
-        <v>950</v>
+        <v>901</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>1064</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>1065</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>1066</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>1067</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>1068</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>1069</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>1070</v>
       </c>
       <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
         <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
       </c>
       <c r="D10" s="1">
         <v>107800</v>
@@ -4022,21 +4022,21 @@
         <v>80</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="G10" t="s">
-        <v>1011</v>
+        <v>962</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>1071</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D11" s="1">
         <v>26812</v>
@@ -4045,21 +4045,21 @@
         <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="G11" t="s">
-        <v>950</v>
+        <v>901</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>1072</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D12" s="1">
         <v>67799</v>
@@ -4068,18 +4068,18 @@
         <v>50</v>
       </c>
       <c r="F12" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>1073</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D13" s="1">
         <v>67799</v>
@@ -4088,18 +4088,18 @@
         <v>50</v>
       </c>
       <c r="F13" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D14" s="1">
         <v>821029</v>
@@ -4108,81 +4108,81 @@
         <v>608</v>
       </c>
       <c r="F14" t="s">
-        <v>106</v>
+        <v>1108</v>
       </c>
       <c r="G14" t="s">
-        <v>1013</v>
+        <v>964</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>1075</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D15" s="1"/>
       <c r="G15" t="s">
-        <v>1013</v>
+        <v>964</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>1076</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D16" s="1"/>
       <c r="G16" t="s">
-        <v>1013</v>
+        <v>964</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>1077</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D17" s="1"/>
       <c r="G17" t="s">
-        <v>959</v>
+        <v>910</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>1078</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D18" s="1"/>
       <c r="G18" t="s">
-        <v>959</v>
+        <v>910</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>1079</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D19" s="1">
         <v>156674</v>
@@ -4191,18 +4191,18 @@
         <v>116</v>
       </c>
       <c r="F19" t="s">
-        <v>109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>1080</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D20" s="1">
         <v>25387</v>
@@ -4211,51 +4211,51 @@
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>111</v>
+        <v>1109</v>
       </c>
       <c r="G20" t="s">
-        <v>951</v>
+        <v>902</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>1081</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D21" s="1"/>
       <c r="G21" t="s">
-        <v>951</v>
+        <v>902</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>1082</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D22" s="1"/>
       <c r="G22" t="s">
-        <v>951</v>
+        <v>902</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>1083</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D23" s="1">
         <v>163762</v>
@@ -4264,66 +4264,66 @@
         <v>121</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>1105</v>
       </c>
       <c r="G23" t="s">
-        <v>959</v>
+        <v>910</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>1084</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D24" s="1"/>
       <c r="G24" t="s">
-        <v>959</v>
+        <v>910</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>1085</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D25" s="1"/>
       <c r="G25" t="s">
-        <v>959</v>
+        <v>910</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>1086</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D26" s="1"/>
       <c r="G26" t="s">
-        <v>1010</v>
+        <v>961</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>1087</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D27" s="1">
         <v>733709</v>
@@ -4332,157 +4332,157 @@
         <v>543</v>
       </c>
       <c r="F27" t="s">
-        <v>105</v>
+        <v>1106</v>
       </c>
       <c r="G27" t="s">
-        <v>1012</v>
+        <v>963</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>1088</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D28" s="1"/>
       <c r="G28" t="s">
-        <v>1012</v>
+        <v>963</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>1089</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D29" s="1"/>
       <c r="G29" t="s">
-        <v>1012</v>
+        <v>963</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>1090</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D30" s="1"/>
       <c r="G30" t="s">
-        <v>1012</v>
+        <v>963</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>1091</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="F31" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>80</v>
+        <v>1092</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>81</v>
+        <v>1093</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>82</v>
+        <v>1094</v>
       </c>
       <c r="B34" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>1095</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C35" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>86</v>
+        <v>1096</v>
       </c>
       <c r="B36" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>87</v>
+        <v>1097</v>
       </c>
       <c r="B37" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>88</v>
+        <v>1098</v>
       </c>
       <c r="B38" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>23</v>
+        <v>1099</v>
       </c>
       <c r="B39" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D39" s="1">
         <v>204443</v>
@@ -4491,18 +4491,18 @@
         <v>151</v>
       </c>
       <c r="F39" t="s">
-        <v>103</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>26</v>
+        <v>1100</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="C40" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D40" s="1">
         <v>59145</v>
@@ -4511,18 +4511,18 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>107</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>25</v>
+        <v>1101</v>
       </c>
       <c r="B41" t="s">
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D41" s="1">
         <v>131723</v>
@@ -4533,13 +4533,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>1102</v>
       </c>
       <c r="B42" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="C42" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D42" s="1">
         <v>59145</v>
@@ -4548,35 +4548,35 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>107</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>1103</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="C43" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G43" t="s">
-        <v>960</v>
+        <v>911</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>1104</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C44" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G44" t="s">
-        <v>961</v>
+        <v>912</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -4613,21 +4613,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>894</v>
+        <v>845</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>893</v>
+        <v>844</v>
       </c>
       <c r="C1" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>962</v>
+        <v>913</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -4635,151 +4635,151 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>895</v>
+        <v>846</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>969</v>
+        <v>920</v>
       </c>
       <c r="C3" t="s">
-        <v>886</v>
+        <v>837</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>896</v>
+        <v>847</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>970</v>
+        <v>921</v>
       </c>
       <c r="C4" t="s">
-        <v>887</v>
+        <v>838</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>897</v>
+        <v>848</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>971</v>
+        <v>922</v>
       </c>
       <c r="C5" t="s">
-        <v>908</v>
+        <v>859</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>898</v>
+        <v>849</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>972</v>
+        <v>923</v>
       </c>
       <c r="C6" t="s">
-        <v>909</v>
+        <v>860</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>899</v>
+        <v>850</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>973</v>
+        <v>924</v>
       </c>
       <c r="C7" t="s">
-        <v>910</v>
+        <v>861</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>900</v>
+        <v>851</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>974</v>
+        <v>925</v>
       </c>
       <c r="C8" t="s">
-        <v>888</v>
+        <v>839</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>901</v>
+        <v>852</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>975</v>
+        <v>926</v>
       </c>
       <c r="C9" t="s">
-        <v>889</v>
+        <v>840</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>902</v>
+        <v>853</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>976</v>
+        <v>927</v>
       </c>
       <c r="C10" t="s">
-        <v>911</v>
+        <v>862</v>
       </c>
       <c r="D10" t="s">
-        <v>890</v>
+        <v>841</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>903</v>
+        <v>854</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>977</v>
+        <v>928</v>
       </c>
       <c r="C11" t="s">
-        <v>891</v>
+        <v>842</v>
       </c>
       <c r="D11" t="s">
-        <v>892</v>
+        <v>843</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>904</v>
+        <v>855</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>978</v>
+        <v>929</v>
       </c>
       <c r="C12" t="s">
-        <v>912</v>
+        <v>863</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>905</v>
+        <v>856</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>979</v>
+        <v>930</v>
       </c>
       <c r="C13" t="s">
-        <v>913</v>
+        <v>864</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>906</v>
+        <v>857</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>980</v>
+        <v>931</v>
       </c>
       <c r="C14" t="s">
-        <v>914</v>
+        <v>865</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>907</v>
+        <v>858</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>981</v>
+        <v>932</v>
       </c>
       <c r="C15" t="s">
-        <v>915</v>
+        <v>866</v>
       </c>
     </row>
   </sheetData>
@@ -4803,23 +4803,23 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>965</v>
+        <v>916</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>928</v>
+        <v>879</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>893</v>
+        <v>844</v>
       </c>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>964</v>
+        <v>915</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>3</v>
@@ -4828,148 +4828,148 @@
         <v>3</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>962</v>
+        <v>913</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>1020</v>
+        <v>971</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>918</v>
+        <v>869</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>1000</v>
+        <v>951</v>
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>1021</v>
+        <v>972</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>919</v>
+        <v>870</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>927</v>
+        <v>878</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>1001</v>
+        <v>952</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>1022</v>
+        <v>973</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>1016</v>
+        <v>967</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>1002</v>
+        <v>953</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>1023</v>
+        <v>974</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>920</v>
+        <v>871</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>921</v>
+        <v>872</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>1003</v>
+        <v>954</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>1024</v>
+        <v>975</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>922</v>
+        <v>873</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>923</v>
+        <v>874</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>1004</v>
+        <v>955</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>1025</v>
+        <v>976</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>924</v>
+        <v>875</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>925</v>
+        <v>876</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>1005</v>
+        <v>956</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>1026</v>
+        <v>977</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>926</v>
+        <v>877</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>1006</v>
+        <v>957</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>1027</v>
+        <v>978</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>929</v>
+        <v>880</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>966</v>
+        <v>917</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>1007</v>
+        <v>958</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>1028</v>
+        <v>979</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>1014</v>
+        <v>965</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>1019</v>
+        <v>970</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
@@ -4977,13 +4977,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>1029</v>
+        <v>980</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>1017</v>
+        <v>968</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>1018</v>
+        <v>969</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -4991,10 +4991,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>1030</v>
+        <v>981</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>1015</v>
+        <v>966</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -5026,8 +5026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K194"/>
   <sheetViews>
-    <sheetView topLeftCell="E29" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView topLeftCell="E117" workbookViewId="0">
+      <selection activeCell="F120" sqref="F120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5045,51 +5045,51 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>529</v>
+        <v>480</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1043</v>
+        <v>994</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1039</v>
+        <v>990</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1042</v>
+        <v>993</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>719</v>
+        <v>670</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>527</v>
+        <v>478</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>720</v>
+        <v>671</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>528</v>
+        <v>479</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>791</v>
+        <v>742</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1040</v>
+        <v>991</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1041</v>
+        <v>992</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
@@ -5101,5427 +5101,5427 @@
         <v>3</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>792</v>
+        <v>743</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>530</v>
+        <v>481</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1031</v>
+        <v>982</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1036</v>
+        <v>987</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>721</v>
+        <v>672</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>225</v>
+        <v>176</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>207</v>
+        <v>158</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>531</v>
+        <v>482</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>963</v>
+        <v>914</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1031</v>
+        <v>982</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1036</v>
+        <v>987</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>368</v>
+        <v>319</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>722</v>
+        <v>673</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>532</v>
+        <v>483</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>963</v>
+        <v>914</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>1031</v>
+        <v>982</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1036</v>
+        <v>987</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>369</v>
+        <v>320</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>370</v>
+        <v>321</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>533</v>
+        <v>484</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1033</v>
+        <v>984</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1032</v>
+        <v>983</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>226</v>
+        <v>177</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>227</v>
+        <v>178</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="5" t="s">
-        <v>228</v>
+        <v>179</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>534</v>
+        <v>485</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>1031</v>
+        <v>982</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1032</v>
+        <v>983</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>535</v>
+        <v>486</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1044</v>
+        <v>995</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>1031</v>
+        <v>982</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1032</v>
+        <v>983</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>220</v>
+        <v>171</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>536</v>
+        <v>487</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>1034</v>
+        <v>985</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1035</v>
+        <v>986</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>723</v>
+        <v>674</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>537</v>
+        <v>488</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>1033</v>
+        <v>984</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1036</v>
+        <v>987</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>229</v>
+        <v>180</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>230</v>
+        <v>181</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>207</v>
+        <v>158</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>538</v>
+        <v>489</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>1033</v>
+        <v>984</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>1036</v>
+        <v>987</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>539</v>
+        <v>490</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1033</v>
+        <v>984</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>1036</v>
+        <v>987</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>131</v>
+        <v>82</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>132</v>
+        <v>83</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>540</v>
+        <v>491</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>1033</v>
+        <v>984</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>1036</v>
+        <v>987</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>232</v>
+        <v>183</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>233</v>
+        <v>184</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>207</v>
+        <v>158</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>234</v>
+        <v>185</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>541</v>
+        <v>492</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>1033</v>
+        <v>984</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>1036</v>
+        <v>987</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>724</v>
+        <v>675</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>188</v>
+        <v>139</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>542</v>
+        <v>493</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>1033</v>
+        <v>984</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>1036</v>
+        <v>987</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>137</v>
+        <v>88</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>543</v>
+        <v>494</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>1033</v>
+        <v>984</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>1036</v>
+        <v>987</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>544</v>
+        <v>495</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>1033</v>
+        <v>984</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>1036</v>
+        <v>987</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>545</v>
+        <v>496</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>1033</v>
+        <v>984</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>1036</v>
+        <v>987</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>235</v>
+        <v>186</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>236</v>
+        <v>187</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>546</v>
+        <v>497</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>1033</v>
+        <v>984</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>1036</v>
+        <v>987</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>547</v>
+        <v>498</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>1033</v>
+        <v>984</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>1036</v>
+        <v>987</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>725</v>
+        <v>676</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>237</v>
+        <v>188</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="J20" s="5"/>
       <c r="K20" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>548</v>
+        <v>499</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>1037</v>
+        <v>988</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>1038</v>
+        <v>989</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>238</v>
+        <v>189</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>239</v>
+        <v>190</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="5" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>549</v>
+        <v>500</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>963</v>
+        <v>914</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>371</v>
+        <v>322</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>372</v>
+        <v>323</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>373</v>
+        <v>324</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>137</v>
+        <v>88</v>
       </c>
       <c r="J22" s="5"/>
       <c r="K22" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>550</v>
+        <v>501</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>963</v>
+        <v>914</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>371</v>
+        <v>322</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>374</v>
+        <v>325</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>373</v>
+        <v>324</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>137</v>
+        <v>88</v>
       </c>
       <c r="J23" s="5"/>
       <c r="K23" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>551</v>
+        <v>502</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="J24" s="5"/>
       <c r="K24" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>552</v>
+        <v>503</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>242</v>
+        <v>193</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="J25" s="5"/>
       <c r="K25" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>553</v>
+        <v>504</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>243</v>
+        <v>194</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>244</v>
+        <v>195</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="J26" s="5"/>
       <c r="K26" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>554</v>
+        <v>505</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>773</v>
+        <v>724</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="J27" s="5"/>
       <c r="K27" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>555</v>
+        <v>506</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>245</v>
+        <v>196</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>246</v>
+        <v>197</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>556</v>
+        <v>507</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>151</v>
+        <v>102</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="5" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>557</v>
+        <v>508</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>558</v>
+        <v>509</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>427</v>
+        <v>378</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>428</v>
+        <v>379</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>429</v>
+        <v>380</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>430</v>
+        <v>381</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>559</v>
+        <v>510</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>431</v>
+        <v>382</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>432</v>
+        <v>383</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>430</v>
+        <v>381</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>560</v>
+        <v>511</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>433</v>
+        <v>384</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>434</v>
+        <v>385</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>435</v>
+        <v>386</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>561</v>
+        <v>512</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>726</v>
+        <v>677</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>436</v>
+        <v>387</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="J34" s="5"/>
       <c r="K34" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>562</v>
+        <v>513</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>437</v>
+        <v>388</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>438</v>
+        <v>389</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="J35" s="5"/>
       <c r="K35" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>563</v>
+        <v>514</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>439</v>
+        <v>390</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>440</v>
+        <v>391</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="J36" s="5"/>
       <c r="K36" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>564</v>
+        <v>515</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>441</v>
+        <v>392</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>442</v>
+        <v>393</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="J37" s="5"/>
       <c r="K37" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>565</v>
+        <v>516</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>443</v>
+        <v>394</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>444</v>
+        <v>395</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="J38" s="5"/>
       <c r="K38" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>566</v>
+        <v>517</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>445</v>
+        <v>396</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>446</v>
+        <v>397</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="J39" s="5"/>
       <c r="K39" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>567</v>
+        <v>518</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>189</v>
+        <v>140</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>190</v>
+        <v>141</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="J40" s="5"/>
       <c r="K40" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>568</v>
+        <v>519</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>157</v>
+        <v>108</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>158</v>
+        <v>109</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="J41" s="5"/>
       <c r="K41" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>569</v>
+        <v>520</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>727</v>
+        <v>678</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>447</v>
+        <v>398</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="J42" s="5"/>
       <c r="K42" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>570</v>
+        <v>521</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>448</v>
+        <v>399</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>449</v>
+        <v>400</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="J43" s="5"/>
       <c r="K43" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>571</v>
+        <v>522</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>450</v>
+        <v>401</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>451</v>
+        <v>402</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>452</v>
+        <v>403</v>
       </c>
       <c r="J44" s="5"/>
       <c r="K44" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>572</v>
+        <v>523</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>453</v>
+        <v>404</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>454</v>
+        <v>405</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="J45" s="5"/>
       <c r="K45" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>573</v>
+        <v>524</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>191</v>
+        <v>142</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>192</v>
+        <v>143</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="J46" s="5"/>
       <c r="K46" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>574</v>
+        <v>525</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="J47" s="5"/>
       <c r="K47" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>575</v>
+        <v>526</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>455</v>
+        <v>406</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>456</v>
+        <v>407</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="J48" s="5"/>
       <c r="K48" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>576</v>
+        <v>527</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>963</v>
+        <v>914</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>375</v>
+        <v>326</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>376</v>
+        <v>327</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>377</v>
+        <v>328</v>
       </c>
       <c r="J49" s="5"/>
       <c r="K49" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>577</v>
+        <v>528</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>221</v>
+        <v>172</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>222</v>
+        <v>173</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3" t="s">
-        <v>207</v>
+        <v>158</v>
       </c>
       <c r="I50" s="3"/>
       <c r="J50" s="5" t="s">
-        <v>223</v>
+        <v>174</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>578</v>
+        <v>529</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="J51" s="5"/>
       <c r="K51" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>579</v>
+        <v>530</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>166</v>
+        <v>117</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="J52" s="5"/>
       <c r="K52" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>580</v>
+        <v>531</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>963</v>
+        <v>914</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>378</v>
+        <v>329</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>379</v>
+        <v>330</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="J53" s="5"/>
       <c r="K53" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>581</v>
+        <v>532</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>193</v>
+        <v>144</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>194</v>
+        <v>145</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>195</v>
+        <v>146</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>582</v>
+        <v>533</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>168</v>
+        <v>119</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="J55" s="5"/>
       <c r="K55" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>583</v>
+        <v>534</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>170</v>
+        <v>121</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="J56" s="5"/>
       <c r="K56" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>584</v>
+        <v>535</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>419</v>
+        <v>370</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>420</v>
+        <v>371</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>421</v>
+        <v>372</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>422</v>
+        <v>373</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>585</v>
+        <v>536</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>728</v>
+        <v>679</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>174</v>
+        <v>125</v>
       </c>
       <c r="J58" s="5"/>
       <c r="K58" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>586</v>
+        <v>537</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>963</v>
+        <v>914</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>380</v>
+        <v>331</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>381</v>
+        <v>332</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="I59" s="3"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>587</v>
+        <v>538</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>967</v>
+        <v>918</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>353</v>
+        <v>304</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>354</v>
+        <v>305</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>355</v>
+        <v>306</v>
       </c>
       <c r="J60" s="5"/>
       <c r="K60" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>588</v>
+        <v>539</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>967</v>
+        <v>918</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>356</v>
+        <v>307</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>357</v>
+        <v>308</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>358</v>
+        <v>309</v>
       </c>
       <c r="J61" s="5"/>
       <c r="K61" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>589</v>
+        <v>540</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>963</v>
+        <v>914</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>382</v>
+        <v>333</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>383</v>
+        <v>334</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>384</v>
+        <v>335</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>385</v>
+        <v>336</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>590</v>
+        <v>541</v>
       </c>
       <c r="B63" s="4"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>457</v>
+        <v>408</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>458</v>
+        <v>409</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>405</v>
+        <v>356</v>
       </c>
       <c r="J63" s="5"/>
       <c r="K63" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>591</v>
+        <v>542</v>
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>459</v>
+        <v>410</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>460</v>
+        <v>411</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>405</v>
+        <v>356</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>461</v>
+        <v>412</v>
       </c>
       <c r="K64" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>592</v>
+        <v>543</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>967</v>
+        <v>918</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>359</v>
+        <v>310</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>360</v>
+        <v>311</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="I65" s="4"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>593</v>
+        <v>544</v>
       </c>
       <c r="B66" s="4"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>462</v>
+        <v>413</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>463</v>
+        <v>414</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>363</v>
+        <v>314</v>
       </c>
       <c r="J66" s="5"/>
       <c r="K66" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>594</v>
+        <v>545</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>967</v>
+        <v>918</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>361</v>
+        <v>312</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>362</v>
+        <v>313</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>363</v>
+        <v>314</v>
       </c>
       <c r="J67" s="5"/>
       <c r="K67" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>595</v>
+        <v>546</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>963</v>
+        <v>914</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>386</v>
+        <v>337</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>387</v>
+        <v>338</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>358</v>
+        <v>309</v>
       </c>
       <c r="J68" s="5"/>
       <c r="K68" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>596</v>
+        <v>547</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="J69" s="5"/>
       <c r="K69" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>597</v>
+        <v>548</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>185</v>
+        <v>136</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="J70" s="5"/>
       <c r="K70" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>598</v>
+        <v>549</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>412</v>
+        <v>363</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>413</v>
+        <v>364</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>414</v>
+        <v>365</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>415</v>
+        <v>366</v>
       </c>
       <c r="J71" s="5"/>
       <c r="K71" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>599</v>
+        <v>550</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>412</v>
+        <v>363</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>416</v>
+        <v>367</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>417</v>
+        <v>368</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>415</v>
+        <v>366</v>
       </c>
       <c r="J72" s="5" t="s">
-        <v>418</v>
+        <v>369</v>
       </c>
       <c r="K72" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>600</v>
+        <v>551</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>963</v>
+        <v>914</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>388</v>
+        <v>339</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>389</v>
+        <v>340</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="J73" s="5"/>
       <c r="K73" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>601</v>
+        <v>552</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>967</v>
+        <v>918</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>364</v>
+        <v>315</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>365</v>
+        <v>316</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="J74" s="5"/>
       <c r="K74" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>602</v>
+        <v>553</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>963</v>
+        <v>914</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>390</v>
+        <v>341</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>391</v>
+        <v>342</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>363</v>
+        <v>314</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>392</v>
+        <v>343</v>
       </c>
       <c r="K75" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>603</v>
+        <v>554</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>963</v>
+        <v>914</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>393</v>
+        <v>344</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>394</v>
+        <v>345</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>395</v>
+        <v>346</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>392</v>
+        <v>343</v>
       </c>
       <c r="K76" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>604</v>
+        <v>555</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>967</v>
+        <v>918</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>366</v>
+        <v>317</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>367</v>
+        <v>318</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="J77" s="5"/>
       <c r="K77" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>605</v>
+        <v>556</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>963</v>
+        <v>914</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>396</v>
+        <v>347</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>397</v>
+        <v>348</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>358</v>
+        <v>309</v>
       </c>
       <c r="J78" s="5"/>
       <c r="K78" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>606</v>
+        <v>557</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>963</v>
+        <v>914</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>398</v>
+        <v>349</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>399</v>
+        <v>350</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="J79" s="5"/>
       <c r="K79" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>607</v>
+        <v>558</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>963</v>
+        <v>914</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>400</v>
+        <v>351</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>401</v>
+        <v>352</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>402</v>
+        <v>353</v>
       </c>
       <c r="K80" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>608</v>
+        <v>559</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>963</v>
+        <v>914</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>403</v>
+        <v>354</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>404</v>
+        <v>355</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>405</v>
+        <v>356</v>
       </c>
       <c r="J81" s="5"/>
       <c r="K81" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>609</v>
+        <v>560</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>176</v>
+        <v>127</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="J82" s="5"/>
       <c r="K82" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>610</v>
+        <v>561</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>963</v>
+        <v>914</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>406</v>
+        <v>357</v>
       </c>
       <c r="G83" s="3"/>
       <c r="H83" s="3" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>363</v>
+        <v>314</v>
       </c>
       <c r="J83" s="5"/>
       <c r="K83" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>611</v>
+        <v>562</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>968</v>
+        <v>919</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>410</v>
+        <v>361</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>411</v>
+        <v>362</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>409</v>
+        <v>360</v>
       </c>
       <c r="J84" s="5"/>
       <c r="K84" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>612</v>
+        <v>563</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>963</v>
+        <v>914</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>407</v>
+        <v>358</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>408</v>
+        <v>359</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>409</v>
+        <v>360</v>
       </c>
       <c r="J85" s="5"/>
       <c r="K85" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>613</v>
+        <v>564</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>423</v>
+        <v>374</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>271</v>
+        <v>222</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>274</v>
+        <v>225</v>
       </c>
       <c r="J86" s="5"/>
       <c r="K86" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>614</v>
+        <v>565</v>
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>464</v>
+        <v>415</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>465</v>
+        <v>416</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>274</v>
+        <v>225</v>
       </c>
       <c r="J87" s="5"/>
       <c r="K87" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>615</v>
+        <v>566</v>
       </c>
       <c r="B88" s="4"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>466</v>
+        <v>417</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>467</v>
+        <v>418</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>468</v>
+        <v>419</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>469</v>
+        <v>420</v>
       </c>
       <c r="J88" s="5"/>
       <c r="K88" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>616</v>
+        <v>567</v>
       </c>
       <c r="B89" s="4"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>470</v>
+        <v>421</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>471</v>
+        <v>422</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="I89" s="4"/>
       <c r="J89" s="5"/>
       <c r="K89" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>617</v>
+        <v>568</v>
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>472</v>
+        <v>423</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>473</v>
+        <v>424</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>774</v>
+        <v>725</v>
       </c>
       <c r="J90" s="5"/>
       <c r="K90" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>618</v>
+        <v>569</v>
       </c>
       <c r="B91" s="4"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>474</v>
+        <v>425</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>313</v>
+        <v>264</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="I91" s="4"/>
       <c r="J91" s="5"/>
       <c r="K91" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>619</v>
+        <v>570</v>
       </c>
       <c r="B92" s="4"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>475</v>
+        <v>426</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>476</v>
+        <v>427</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>477</v>
+        <v>428</v>
       </c>
       <c r="J92" s="5" t="s">
-        <v>478</v>
+        <v>429</v>
       </c>
       <c r="K92" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>620</v>
+        <v>571</v>
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>479</v>
+        <v>430</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>480</v>
+        <v>431</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>729</v>
+        <v>680</v>
       </c>
       <c r="J93" s="5"/>
       <c r="K93" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>621</v>
+        <v>572</v>
       </c>
       <c r="B94" s="4"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>481</v>
+        <v>432</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>482</v>
+        <v>433</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>483</v>
+        <v>434</v>
       </c>
       <c r="J94" s="5"/>
       <c r="K94" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>622</v>
+        <v>573</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>423</v>
+        <v>374</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>424</v>
+        <v>375</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>425</v>
+        <v>376</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>426</v>
+        <v>377</v>
       </c>
       <c r="J95" s="5"/>
       <c r="K95" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>623</v>
+        <v>574</v>
       </c>
       <c r="B96" s="4"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>484</v>
+        <v>435</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>485</v>
+        <v>436</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>468</v>
+        <v>419</v>
       </c>
       <c r="I96" s="3"/>
       <c r="J96" s="5"/>
       <c r="K96" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>624</v>
+        <v>575</v>
       </c>
       <c r="B97" s="4"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>486</v>
+        <v>437</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>487</v>
+        <v>438</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>274</v>
+        <v>225</v>
       </c>
       <c r="J97" s="5"/>
       <c r="K97" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>625</v>
+        <v>576</v>
       </c>
       <c r="B98" s="4"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>488</v>
+        <v>439</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>489</v>
+        <v>440</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>490</v>
+        <v>441</v>
       </c>
       <c r="J98" s="5" t="s">
-        <v>491</v>
+        <v>442</v>
       </c>
       <c r="K98" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>626</v>
+        <v>577</v>
       </c>
       <c r="B99" s="4"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>492</v>
+        <v>443</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>493</v>
+        <v>444</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>494</v>
+        <v>445</v>
       </c>
       <c r="J99" s="5"/>
       <c r="K99" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>627</v>
+        <v>578</v>
       </c>
       <c r="B100" s="4"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>495</v>
+        <v>446</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>496</v>
+        <v>447</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>494</v>
+        <v>445</v>
       </c>
       <c r="J100" s="5"/>
       <c r="K100" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>628</v>
+        <v>579</v>
       </c>
       <c r="B101" s="4"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>497</v>
+        <v>448</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>498</v>
+        <v>449</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="I101" s="3"/>
       <c r="J101" s="5"/>
       <c r="K101" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>629</v>
+        <v>580</v>
       </c>
       <c r="B102" s="4"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>499</v>
+        <v>450</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>500</v>
+        <v>451</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>468</v>
+        <v>419</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>503</v>
+        <v>454</v>
       </c>
       <c r="J102" s="5"/>
       <c r="K102" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>630</v>
+        <v>581</v>
       </c>
       <c r="B103" s="4"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>501</v>
+        <v>452</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>502</v>
+        <v>453</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>503</v>
+        <v>454</v>
       </c>
       <c r="J103" s="5"/>
       <c r="K103" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>631</v>
+        <v>582</v>
       </c>
       <c r="B104" s="4"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>504</v>
+        <v>455</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>505</v>
+        <v>456</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>506</v>
+        <v>457</v>
       </c>
       <c r="J104" s="5" t="s">
-        <v>507</v>
+        <v>458</v>
       </c>
       <c r="K104" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>632</v>
+        <v>583</v>
       </c>
       <c r="B105" s="4"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>508</v>
+        <v>459</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>509</v>
+        <v>460</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>510</v>
+        <v>461</v>
       </c>
       <c r="J105" s="5"/>
       <c r="K105" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>633</v>
+        <v>584</v>
       </c>
       <c r="B106" s="4"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>511</v>
+        <v>462</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>512</v>
+        <v>463</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>513</v>
+        <v>464</v>
       </c>
       <c r="J106" s="5"/>
       <c r="K106" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>634</v>
+        <v>585</v>
       </c>
       <c r="B107" s="4"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>730</v>
+        <v>681</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>514</v>
+        <v>465</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>469</v>
+        <v>420</v>
       </c>
       <c r="J107" s="5"/>
       <c r="K107" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>635</v>
+        <v>586</v>
       </c>
       <c r="B108" s="4"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>515</v>
+        <v>466</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>516</v>
+        <v>467</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>274</v>
+        <v>225</v>
       </c>
       <c r="J108" s="5" t="s">
-        <v>517</v>
+        <v>468</v>
       </c>
       <c r="K108" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>636</v>
+        <v>587</v>
       </c>
       <c r="B109" s="4"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>518</v>
+        <v>469</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>519</v>
+        <v>470</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>520</v>
+        <v>471</v>
       </c>
       <c r="J109" s="5"/>
       <c r="K109" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>637</v>
+        <v>588</v>
       </c>
       <c r="B110" s="4"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>521</v>
+        <v>472</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>522</v>
+        <v>473</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>468</v>
+        <v>419</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>469</v>
+        <v>420</v>
       </c>
       <c r="J110" s="5"/>
       <c r="K110" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>638</v>
+        <v>589</v>
       </c>
       <c r="B111" s="4"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>523</v>
+        <v>474</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>524</v>
+        <v>475</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>469</v>
+        <v>420</v>
       </c>
       <c r="J111" s="5"/>
       <c r="K111" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>639</v>
+        <v>590</v>
       </c>
       <c r="B112" s="4"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>525</v>
+        <v>476</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>526</v>
+        <v>477</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="J112" s="5"/>
       <c r="K112" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="113" spans="1:11" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>640</v>
+        <v>591</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>775</v>
+        <v>726</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>776</v>
+        <v>727</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="I113" s="3"/>
       <c r="J113" s="5"/>
       <c r="K113" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>641</v>
+        <v>592</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>731</v>
+        <v>682</v>
       </c>
       <c r="G114" s="4"/>
       <c r="H114" s="3"/>
       <c r="I114" s="4"/>
       <c r="J114" s="5"/>
       <c r="K114" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>642</v>
+        <v>593</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>732</v>
+        <v>683</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>777</v>
+        <v>728</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="I115" s="4"/>
       <c r="J115" s="5"/>
       <c r="K115" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>643</v>
+        <v>594</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>733</v>
+        <v>684</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>199</v>
+        <v>150</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="I116" s="4"/>
       <c r="J116" s="5"/>
       <c r="K116" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>644</v>
+        <v>595</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>734</v>
+        <v>685</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>201</v>
+        <v>152</v>
       </c>
       <c r="I117" s="4"/>
       <c r="J117" s="5" t="s">
-        <v>202</v>
+        <v>153</v>
       </c>
       <c r="K117" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>645</v>
+        <v>596</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>735</v>
+        <v>686</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>203</v>
+        <v>154</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="I118" s="4"/>
       <c r="J118" s="5" t="s">
-        <v>204</v>
+        <v>155</v>
       </c>
       <c r="K118" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>646</v>
+        <v>597</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>736</v>
+        <v>687</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>199</v>
+        <v>150</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>205</v>
+        <v>156</v>
       </c>
       <c r="I119" s="4"/>
       <c r="J119" s="5"/>
       <c r="K119" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>647</v>
+        <v>598</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>737</v>
+        <v>688</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>206</v>
+        <v>157</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>207</v>
+        <v>158</v>
       </c>
       <c r="I120" s="3"/>
       <c r="J120" s="5"/>
       <c r="K120" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>648</v>
+        <v>599</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>208</v>
+        <v>159</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>209</v>
+        <v>160</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="I121" s="3"/>
       <c r="J121" s="5"/>
       <c r="K121" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>649</v>
+        <v>600</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>738</v>
+        <v>689</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>210</v>
+        <v>161</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="I122" s="3"/>
       <c r="J122" s="5"/>
       <c r="K122" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>650</v>
+        <v>601</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>739</v>
+        <v>690</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>212</v>
+        <v>163</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="I123" s="3"/>
       <c r="J123" s="5" t="s">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c r="K123" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>651</v>
+        <v>602</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>740</v>
+        <v>691</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>214</v>
+        <v>165</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>205</v>
+        <v>156</v>
       </c>
       <c r="I124" s="3"/>
       <c r="J124" s="5"/>
       <c r="K124" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>652</v>
+        <v>603</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>741</v>
+        <v>692</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>778</v>
+        <v>729</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="I125" s="3"/>
       <c r="J125" s="5"/>
       <c r="K125" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>653</v>
+        <v>604</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>779</v>
+        <v>730</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>201</v>
+        <v>152</v>
       </c>
       <c r="I126" s="3"/>
       <c r="J126" s="5"/>
       <c r="K126" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>654</v>
+        <v>605</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>742</v>
+        <v>693</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>216</v>
+        <v>167</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="I127" s="3"/>
       <c r="J127" s="5"/>
       <c r="K127" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="128" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>655</v>
+        <v>606</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>743</v>
+        <v>694</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>780</v>
+        <v>731</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="I128" s="3"/>
       <c r="J128" s="5" t="s">
-        <v>217</v>
+        <v>168</v>
       </c>
       <c r="K128" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="129" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>656</v>
+        <v>607</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>744</v>
+        <v>695</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="I129" s="3"/>
       <c r="J129" s="5" t="s">
-        <v>219</v>
+        <v>170</v>
       </c>
       <c r="K129" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="130" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>657</v>
+        <v>608</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>781</v>
+        <v>732</v>
       </c>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>745</v>
+        <v>696</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>269</v>
+        <v>220</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="I130" s="3"/>
       <c r="J130" s="5"/>
       <c r="K130" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>658</v>
+        <v>609</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>746</v>
+        <v>697</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>782</v>
+        <v>733</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="I131" s="3"/>
       <c r="J131" s="5"/>
       <c r="K131" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="132" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>659</v>
+        <v>610</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>747</v>
+        <v>698</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>253</v>
+        <v>204</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>205</v>
+        <v>156</v>
       </c>
       <c r="I132" s="3"/>
       <c r="J132" s="5"/>
       <c r="K132" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="133" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>660</v>
+        <v>611</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>748</v>
+        <v>699</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>254</v>
+        <v>205</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="I133" s="3"/>
       <c r="J133" s="5"/>
       <c r="K133" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="134" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>661</v>
+        <v>612</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>749</v>
+        <v>700</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>255</v>
+        <v>206</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="I134" s="3"/>
       <c r="J134" s="5"/>
       <c r="K134" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="135" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>662</v>
+        <v>613</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>750</v>
+        <v>701</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>256</v>
+        <v>207</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="I135" s="3"/>
       <c r="J135" s="5" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="K135" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="136" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>663</v>
+        <v>614</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>751</v>
+        <v>702</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>258</v>
+        <v>209</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="I136" s="3"/>
       <c r="J136" s="5"/>
       <c r="K136" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="137" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>664</v>
+        <v>615</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>752</v>
+        <v>703</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>259</v>
+        <v>210</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>207</v>
+        <v>158</v>
       </c>
       <c r="I137" s="3"/>
       <c r="J137" s="5"/>
       <c r="K137" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="138" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>665</v>
+        <v>616</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>753</v>
+        <v>704</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>260</v>
+        <v>211</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="I138" s="3"/>
       <c r="J138" s="5"/>
       <c r="K138" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="139" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>666</v>
+        <v>617</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>754</v>
+        <v>705</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>261</v>
+        <v>212</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="I139" s="3"/>
       <c r="J139" s="5"/>
       <c r="K139" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="140" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>667</v>
+        <v>618</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>755</v>
+        <v>706</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>262</v>
+        <v>213</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="I140" s="3"/>
       <c r="J140" s="5"/>
       <c r="K140" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="141" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>668</v>
+        <v>619</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>756</v>
+        <v>707</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>263</v>
+        <v>214</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="I141" s="3"/>
       <c r="J141" s="5"/>
       <c r="K141" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="142" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>669</v>
+        <v>620</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>757</v>
+        <v>708</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="I142" s="3"/>
       <c r="J142" s="5"/>
       <c r="K142" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="143" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
-        <v>670</v>
+        <v>621</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>758</v>
+        <v>709</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>265</v>
+        <v>216</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="I143" s="3"/>
       <c r="J143" s="5"/>
       <c r="K143" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="144" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
-        <v>671</v>
+        <v>622</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>759</v>
+        <v>710</v>
       </c>
       <c r="G144" s="3"/>
       <c r="H144" s="3" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="I144" s="3"/>
       <c r="J144" s="5" t="s">
-        <v>266</v>
+        <v>217</v>
       </c>
       <c r="K144" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="145" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>672</v>
+        <v>623</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="F145" s="7" t="s">
-        <v>760</v>
+        <v>711</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>267</v>
+        <v>218</v>
       </c>
       <c r="H145" s="3" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="I145" s="3"/>
       <c r="J145" s="5" t="s">
-        <v>266</v>
+        <v>217</v>
       </c>
       <c r="K145" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="146" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
-        <v>673</v>
+        <v>624</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="F146" s="7" t="s">
-        <v>761</v>
+        <v>712</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>268</v>
+        <v>219</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="I146" s="3"/>
       <c r="J146" s="5"/>
       <c r="K146" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="147" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>674</v>
+        <v>625</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>762</v>
+        <v>713</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>247</v>
+        <v>198</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>201</v>
+        <v>152</v>
       </c>
       <c r="I147" s="3"/>
       <c r="J147" s="5"/>
       <c r="K147" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="148" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>675</v>
+        <v>626</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="F148" s="7" t="s">
-        <v>763</v>
+        <v>714</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>248</v>
+        <v>199</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="I148" s="3"/>
       <c r="J148" s="5"/>
       <c r="K148" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="149" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>676</v>
+        <v>627</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>764</v>
+        <v>715</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>249</v>
+        <v>200</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="I149" s="3"/>
       <c r="J149" s="5"/>
       <c r="K149" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="150" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>677</v>
+        <v>628</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>765</v>
+        <v>716</v>
       </c>
       <c r="G150" s="3"/>
       <c r="H150" s="3" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="I150" s="3"/>
       <c r="J150" s="5"/>
       <c r="K150" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="151" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>678</v>
+        <v>629</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="F151" s="7" t="s">
-        <v>766</v>
+        <v>717</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="I151" s="3"/>
       <c r="J151" s="5"/>
       <c r="K151" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="152" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>679</v>
+        <v>630</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>767</v>
+        <v>718</v>
       </c>
       <c r="G152" s="3"/>
       <c r="H152" s="3" t="s">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="I152" s="3"/>
       <c r="J152" s="5"/>
       <c r="K152" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="153" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
-        <v>680</v>
+        <v>631</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="F153" s="7" t="s">
-        <v>783</v>
+        <v>734</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>251</v>
+        <v>202</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="I153" s="3"/>
       <c r="J153" s="5"/>
       <c r="K153" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="154" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>681</v>
+        <v>632</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="F154" s="7" t="s">
-        <v>768</v>
+        <v>719</v>
       </c>
       <c r="G154" s="3"/>
       <c r="H154" s="3" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="I154" s="3"/>
       <c r="J154" s="5"/>
       <c r="K154" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="155" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
-        <v>682</v>
+        <v>633</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="F155" s="7" t="s">
-        <v>769</v>
+        <v>720</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>252</v>
+        <v>203</v>
       </c>
       <c r="H155" s="3" t="s">
-        <v>201</v>
+        <v>152</v>
       </c>
       <c r="I155" s="3"/>
       <c r="J155" s="5"/>
       <c r="K155" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="156" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
-        <v>683</v>
+        <v>634</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>423</v>
+        <v>374</v>
       </c>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="F156" s="7" t="s">
-        <v>275</v>
+        <v>226</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>276</v>
+        <v>227</v>
       </c>
       <c r="H156" s="3" t="s">
-        <v>277</v>
+        <v>228</v>
       </c>
       <c r="I156" s="3" t="s">
-        <v>278</v>
+        <v>229</v>
       </c>
       <c r="J156" s="5"/>
       <c r="K156" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="157" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
-        <v>684</v>
+        <v>635</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>423</v>
+        <v>374</v>
       </c>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>280</v>
+        <v>231</v>
       </c>
       <c r="H157" s="8" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="I157" s="3" t="s">
-        <v>278</v>
+        <v>229</v>
       </c>
       <c r="J157" s="5"/>
       <c r="K157" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="158" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
-        <v>685</v>
+        <v>636</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>423</v>
+        <v>374</v>
       </c>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>282</v>
+        <v>233</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>283</v>
+        <v>234</v>
       </c>
       <c r="H158" s="3" t="s">
-        <v>284</v>
+        <v>235</v>
       </c>
       <c r="I158" s="3" t="s">
-        <v>278</v>
+        <v>229</v>
       </c>
       <c r="J158" s="5"/>
       <c r="K158" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="159" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>686</v>
+        <v>637</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>423</v>
+        <v>374</v>
       </c>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="F159" s="9" t="s">
-        <v>784</v>
+        <v>735</v>
       </c>
       <c r="G159" s="9" t="s">
-        <v>285</v>
+        <v>236</v>
       </c>
       <c r="H159" s="3" t="s">
-        <v>284</v>
+        <v>235</v>
       </c>
       <c r="I159" s="3" t="s">
-        <v>278</v>
+        <v>229</v>
       </c>
       <c r="J159" s="5"/>
       <c r="K159" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="160" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
-        <v>687</v>
+        <v>638</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>423</v>
+        <v>374</v>
       </c>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="F160" s="10" t="s">
-        <v>286</v>
+        <v>237</v>
       </c>
       <c r="G160" s="9" t="s">
-        <v>785</v>
+        <v>736</v>
       </c>
       <c r="H160" s="3" t="s">
-        <v>284</v>
+        <v>235</v>
       </c>
       <c r="I160" s="3" t="s">
-        <v>278</v>
+        <v>229</v>
       </c>
       <c r="J160" s="5"/>
       <c r="K160" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="161" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
-        <v>688</v>
+        <v>639</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>423</v>
+        <v>374</v>
       </c>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="F161" s="10" t="s">
-        <v>287</v>
+        <v>238</v>
       </c>
       <c r="G161" s="10" t="s">
-        <v>786</v>
+        <v>737</v>
       </c>
       <c r="H161" s="3" t="s">
-        <v>284</v>
+        <v>235</v>
       </c>
       <c r="I161" s="3" t="s">
-        <v>288</v>
+        <v>239</v>
       </c>
       <c r="J161" s="5"/>
       <c r="K161" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="162" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
-        <v>689</v>
+        <v>640</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>423</v>
+        <v>374</v>
       </c>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="F162" s="8" t="s">
-        <v>289</v>
+        <v>240</v>
       </c>
       <c r="G162" s="10" t="s">
-        <v>290</v>
+        <v>241</v>
       </c>
       <c r="H162" s="3" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="I162" s="8" t="s">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="J162" s="5"/>
       <c r="K162" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="163" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
-        <v>690</v>
+        <v>641</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>423</v>
+        <v>374</v>
       </c>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="F163" s="10" t="s">
-        <v>292</v>
+        <v>243</v>
       </c>
       <c r="G163" s="8" t="s">
-        <v>293</v>
+        <v>244</v>
       </c>
       <c r="H163" s="8" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="I163" s="8" t="s">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="J163" s="5"/>
       <c r="K163" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="164" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
-        <v>691</v>
+        <v>642</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>423</v>
+        <v>374</v>
       </c>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="F164" s="8" t="s">
-        <v>294</v>
+        <v>245</v>
       </c>
       <c r="G164" s="10" t="s">
-        <v>295</v>
+        <v>246</v>
       </c>
       <c r="H164" s="8" t="s">
-        <v>787</v>
+        <v>738</v>
       </c>
       <c r="I164" s="8" t="s">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="J164" s="5"/>
       <c r="K164" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="165" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
-        <v>692</v>
+        <v>643</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>423</v>
+        <v>374</v>
       </c>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="F165" s="8" t="s">
-        <v>296</v>
+        <v>247</v>
       </c>
       <c r="G165" s="10" t="s">
-        <v>297</v>
+        <v>248</v>
       </c>
       <c r="H165" s="10" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="I165" s="8" t="s">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="J165" s="5"/>
       <c r="K165" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>693</v>
+        <v>644</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>423</v>
+        <v>374</v>
       </c>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="F166" s="8" t="s">
-        <v>298</v>
+        <v>249</v>
       </c>
       <c r="G166" s="8" t="s">
-        <v>299</v>
+        <v>250</v>
       </c>
       <c r="H166" s="8" t="s">
-        <v>284</v>
+        <v>235</v>
       </c>
       <c r="I166" s="8" t="s">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="J166" s="5"/>
       <c r="K166" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="167" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
-        <v>694</v>
+        <v>645</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>423</v>
+        <v>374</v>
       </c>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="F167" s="10" t="s">
-        <v>300</v>
+        <v>251</v>
       </c>
       <c r="G167" s="10" t="s">
-        <v>301</v>
+        <v>252</v>
       </c>
       <c r="H167" s="3" t="s">
-        <v>277</v>
+        <v>228</v>
       </c>
       <c r="I167" s="8" t="s">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="J167" s="5"/>
       <c r="K167" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="168" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
-        <v>695</v>
+        <v>646</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>423</v>
+        <v>374</v>
       </c>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="F168" s="10" t="s">
-        <v>302</v>
+        <v>253</v>
       </c>
       <c r="G168" s="8" t="s">
-        <v>303</v>
+        <v>254</v>
       </c>
       <c r="H168" s="10" t="s">
-        <v>304</v>
+        <v>255</v>
       </c>
       <c r="I168" s="8" t="s">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="J168" s="5"/>
       <c r="K168" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
-        <v>696</v>
+        <v>647</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>423</v>
+        <v>374</v>
       </c>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="F169" s="8" t="s">
-        <v>770</v>
+        <v>721</v>
       </c>
       <c r="G169" s="8" t="s">
-        <v>305</v>
+        <v>256</v>
       </c>
       <c r="H169" s="8" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="I169" s="8" t="s">
-        <v>306</v>
+        <v>257</v>
       </c>
       <c r="J169" s="5"/>
       <c r="K169" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
-        <v>697</v>
+        <v>648</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>423</v>
+        <v>374</v>
       </c>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="F170" s="8" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="G170" s="8" t="s">
-        <v>305</v>
+        <v>256</v>
       </c>
       <c r="H170" s="8" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="I170" s="8" t="s">
-        <v>306</v>
+        <v>257</v>
       </c>
       <c r="J170" s="5"/>
       <c r="K170" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="171" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
-        <v>698</v>
+        <v>649</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>423</v>
+        <v>374</v>
       </c>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="F171" s="10" t="s">
-        <v>308</v>
+        <v>259</v>
       </c>
       <c r="G171" s="8" t="s">
-        <v>309</v>
+        <v>260</v>
       </c>
       <c r="H171" s="8" t="s">
-        <v>284</v>
+        <v>235</v>
       </c>
       <c r="I171" s="8" t="s">
-        <v>306</v>
+        <v>257</v>
       </c>
       <c r="J171" s="5"/>
       <c r="K171" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="172" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
-        <v>699</v>
+        <v>650</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>423</v>
+        <v>374</v>
       </c>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="F172" s="8" t="s">
-        <v>310</v>
+        <v>261</v>
       </c>
       <c r="G172" s="10" t="s">
-        <v>311</v>
+        <v>262</v>
       </c>
       <c r="H172" s="3" t="s">
-        <v>304</v>
+        <v>255</v>
       </c>
       <c r="I172" s="8" t="s">
-        <v>306</v>
+        <v>257</v>
       </c>
       <c r="J172" s="5"/>
       <c r="K172" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
-        <v>700</v>
+        <v>651</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>423</v>
+        <v>374</v>
       </c>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="F173" s="8" t="s">
-        <v>312</v>
+        <v>263</v>
       </c>
       <c r="G173" s="8" t="s">
-        <v>313</v>
+        <v>264</v>
       </c>
       <c r="H173" s="8" t="s">
-        <v>304</v>
+        <v>255</v>
       </c>
       <c r="I173" s="8" t="s">
-        <v>306</v>
+        <v>257</v>
       </c>
       <c r="J173" s="5"/>
       <c r="K173" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
-        <v>701</v>
+        <v>652</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>423</v>
+        <v>374</v>
       </c>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="F174" s="8" t="s">
-        <v>314</v>
+        <v>265</v>
       </c>
       <c r="G174" s="8" t="s">
-        <v>315</v>
+        <v>266</v>
       </c>
       <c r="H174" s="8" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="I174" s="8" t="s">
-        <v>316</v>
+        <v>267</v>
       </c>
       <c r="J174" s="5"/>
       <c r="K174" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="175" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
-        <v>702</v>
+        <v>653</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>423</v>
+        <v>374</v>
       </c>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="F175" s="8" t="s">
-        <v>788</v>
+        <v>739</v>
       </c>
       <c r="G175" s="10" t="s">
-        <v>317</v>
+        <v>268</v>
       </c>
       <c r="H175" s="8" t="s">
-        <v>277</v>
+        <v>228</v>
       </c>
       <c r="I175" s="8" t="s">
-        <v>316</v>
+        <v>267</v>
       </c>
       <c r="J175" s="5"/>
       <c r="K175" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="176" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
-        <v>703</v>
+        <v>654</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>423</v>
+        <v>374</v>
       </c>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F176" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="G176" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="F176" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="G176" s="8" t="s">
-        <v>319</v>
-      </c>
       <c r="H176" s="8" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="I176" s="8" t="s">
-        <v>320</v>
+        <v>271</v>
       </c>
       <c r="J176" s="5"/>
       <c r="K176" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="177" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
-        <v>704</v>
+        <v>655</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>423</v>
+        <v>374</v>
       </c>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F177" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="G177" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="F177" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="G177" s="10" t="s">
-        <v>319</v>
-      </c>
       <c r="H177" s="8" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="I177" s="10" t="s">
-        <v>320</v>
+        <v>271</v>
       </c>
       <c r="J177" s="5"/>
       <c r="K177" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="178" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
-        <v>705</v>
+        <v>656</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>423</v>
+        <v>374</v>
       </c>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F178" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="G178" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="F178" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="G178" s="10" t="s">
-        <v>319</v>
-      </c>
       <c r="H178" s="8" t="s">
-        <v>304</v>
+        <v>255</v>
       </c>
       <c r="I178" s="10" t="s">
-        <v>320</v>
+        <v>271</v>
       </c>
       <c r="J178" s="5"/>
       <c r="K178" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="179" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
-        <v>706</v>
+        <v>657</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>423</v>
+        <v>374</v>
       </c>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F179" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="G179" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="F179" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="G179" s="10" t="s">
-        <v>319</v>
-      </c>
       <c r="H179" s="10" t="s">
-        <v>277</v>
+        <v>228</v>
       </c>
       <c r="I179" s="10" t="s">
-        <v>320</v>
+        <v>271</v>
       </c>
       <c r="J179" s="5"/>
       <c r="K179" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="180" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
-        <v>707</v>
+        <v>658</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>423</v>
+        <v>374</v>
       </c>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="F180" s="10" t="s">
-        <v>324</v>
+        <v>275</v>
       </c>
       <c r="G180" s="10" t="s">
-        <v>325</v>
+        <v>276</v>
       </c>
       <c r="H180" s="10" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="I180" s="10" t="s">
-        <v>326</v>
+        <v>277</v>
       </c>
       <c r="J180" s="5"/>
       <c r="K180" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="181" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
-        <v>708</v>
+        <v>659</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>423</v>
+        <v>374</v>
       </c>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="F181" s="10" t="s">
-        <v>327</v>
+        <v>278</v>
       </c>
       <c r="G181" s="8" t="s">
-        <v>328</v>
+        <v>279</v>
       </c>
       <c r="H181" s="8" t="s">
-        <v>284</v>
+        <v>235</v>
       </c>
       <c r="I181" s="8" t="s">
-        <v>326</v>
+        <v>277</v>
       </c>
       <c r="J181" s="5"/>
       <c r="K181" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="182" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
-        <v>709</v>
+        <v>660</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>423</v>
+        <v>374</v>
       </c>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="F182" s="10" t="s">
-        <v>329</v>
+        <v>280</v>
       </c>
       <c r="G182" s="10" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
       <c r="H182" s="8" t="s">
-        <v>304</v>
+        <v>255</v>
       </c>
       <c r="I182" s="8" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
       <c r="J182" s="5"/>
       <c r="K182" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="183" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
-        <v>710</v>
+        <v>661</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>423</v>
+        <v>374</v>
       </c>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="F183" s="10" t="s">
-        <v>332</v>
+        <v>283</v>
       </c>
       <c r="G183" s="10" t="s">
-        <v>333</v>
+        <v>284</v>
       </c>
       <c r="H183" s="8" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="I183" s="8" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
       <c r="J183" s="5"/>
       <c r="K183" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="184" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
-        <v>711</v>
+        <v>662</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>423</v>
+        <v>374</v>
       </c>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>789</v>
+        <v>740</v>
       </c>
       <c r="G184" s="10" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="H184" s="10" t="s">
-        <v>335</v>
+        <v>286</v>
       </c>
       <c r="I184" s="10" t="s">
-        <v>336</v>
+        <v>287</v>
       </c>
       <c r="J184" s="5"/>
       <c r="K184" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="185" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
-        <v>712</v>
+        <v>663</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>423</v>
+        <v>374</v>
       </c>
       <c r="C185" s="9"/>
       <c r="D185" s="9"/>
       <c r="E185" s="10" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="F185" s="10" t="s">
-        <v>337</v>
+        <v>288</v>
       </c>
       <c r="G185" s="10" t="s">
-        <v>338</v>
+        <v>289</v>
       </c>
       <c r="H185" s="10" t="s">
-        <v>335</v>
+        <v>286</v>
       </c>
       <c r="I185" s="10" t="s">
-        <v>336</v>
+        <v>287</v>
       </c>
       <c r="J185" s="5"/>
       <c r="K185" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="186" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
-        <v>713</v>
+        <v>664</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>423</v>
+        <v>374</v>
       </c>
       <c r="C186" s="9"/>
       <c r="D186" s="9"/>
       <c r="E186" s="10" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="F186" s="10" t="s">
-        <v>339</v>
+        <v>290</v>
       </c>
       <c r="G186" s="10" t="s">
-        <v>340</v>
+        <v>291</v>
       </c>
       <c r="H186" s="10" t="s">
-        <v>341</v>
+        <v>292</v>
       </c>
       <c r="I186" s="10" t="s">
-        <v>342</v>
+        <v>293</v>
       </c>
       <c r="J186" s="5"/>
       <c r="K186" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="187" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
-        <v>714</v>
+        <v>665</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>423</v>
+        <v>374</v>
       </c>
       <c r="C187" s="9"/>
       <c r="D187" s="9"/>
       <c r="E187" s="10" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="F187" s="10" t="s">
-        <v>343</v>
+        <v>294</v>
       </c>
       <c r="G187" s="10" t="s">
-        <v>344</v>
+        <v>295</v>
       </c>
       <c r="H187" s="10" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="I187" s="10" t="s">
-        <v>342</v>
+        <v>293</v>
       </c>
       <c r="J187" s="5"/>
       <c r="K187" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="188" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
-        <v>715</v>
+        <v>666</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>423</v>
+        <v>374</v>
       </c>
       <c r="C188" s="9"/>
       <c r="D188" s="9"/>
       <c r="E188" s="10" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="F188" s="10" t="s">
-        <v>345</v>
+        <v>296</v>
       </c>
       <c r="G188" s="10" t="s">
-        <v>346</v>
+        <v>297</v>
       </c>
       <c r="H188" s="10" t="s">
-        <v>335</v>
+        <v>286</v>
       </c>
       <c r="I188" s="10" t="s">
-        <v>771</v>
+        <v>722</v>
       </c>
       <c r="J188" s="5"/>
       <c r="K188" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="189" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
-        <v>716</v>
+        <v>667</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>423</v>
+        <v>374</v>
       </c>
       <c r="C189" s="9"/>
       <c r="D189" s="9"/>
       <c r="E189" s="10" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="F189" s="10" t="s">
-        <v>347</v>
+        <v>298</v>
       </c>
       <c r="G189" s="10" t="s">
-        <v>772</v>
+        <v>723</v>
       </c>
       <c r="H189" s="8" t="s">
-        <v>277</v>
+        <v>228</v>
       </c>
       <c r="I189" s="8" t="s">
-        <v>348</v>
+        <v>299</v>
       </c>
       <c r="J189" s="5"/>
       <c r="K189" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="190" spans="1:11" ht="153" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
-        <v>717</v>
+        <v>668</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>423</v>
+        <v>374</v>
       </c>
       <c r="C190" s="9"/>
       <c r="D190" s="9"/>
       <c r="E190" s="10" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="F190" s="8" t="s">
-        <v>349</v>
+        <v>300</v>
       </c>
       <c r="G190" s="10" t="s">
-        <v>790</v>
+        <v>741</v>
       </c>
       <c r="H190" s="8" t="s">
-        <v>335</v>
+        <v>286</v>
       </c>
       <c r="I190" s="8" t="s">
-        <v>350</v>
+        <v>301</v>
       </c>
       <c r="J190" s="5"/>
       <c r="K190" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="191" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
-        <v>718</v>
+        <v>669</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>423</v>
+        <v>374</v>
       </c>
       <c r="C191" s="9"/>
       <c r="D191" s="9"/>
       <c r="E191" s="10" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="F191" s="10" t="s">
-        <v>351</v>
+        <v>302</v>
       </c>
       <c r="G191" s="10" t="s">
-        <v>352</v>
+        <v>303</v>
       </c>
       <c r="H191" s="10" t="s">
-        <v>341</v>
+        <v>292</v>
       </c>
       <c r="I191" s="10" t="s">
-        <v>350</v>
+        <v>301</v>
       </c>
       <c r="J191" s="5"/>
       <c r="K191" s="5" t="s">
-        <v>7</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.2">
@@ -10566,24 +10566,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>793</v>
+        <v>744</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>893</v>
+        <v>844</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>830</v>
+        <v>781</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>794</v>
+        <v>745</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>3</v>
@@ -10592,7 +10592,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>962</v>
+        <v>913</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>3</v>
@@ -10600,10 +10600,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>812</v>
+        <v>763</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>795</v>
+        <v>746</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -10611,10 +10611,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>813</v>
+        <v>764</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>796</v>
+        <v>747</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -10622,48 +10622,48 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>814</v>
+        <v>765</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>797</v>
+        <v>748</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12" t="s">
-        <v>982</v>
+        <v>933</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>831</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>815</v>
+        <v>766</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>798</v>
+        <v>749</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12" t="s">
-        <v>983</v>
+        <v>934</v>
       </c>
       <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>816</v>
+        <v>767</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>799</v>
+        <v>750</v>
       </c>
       <c r="C7" s="12"/>
       <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>817</v>
+        <v>768</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>800</v>
+        <v>751</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -10671,10 +10671,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>818</v>
+        <v>769</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>801</v>
+        <v>752</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -10682,23 +10682,23 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>819</v>
+        <v>770</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>802</v>
+        <v>753</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>802</v>
+        <v>753</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>820</v>
+        <v>771</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>803</v>
+        <v>754</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -10706,10 +10706,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>821</v>
+        <v>772</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>804</v>
+        <v>755</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -10717,10 +10717,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>822</v>
+        <v>773</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>805</v>
+        <v>756</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -10728,10 +10728,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>823</v>
+        <v>774</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>806</v>
+        <v>757</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -10739,10 +10739,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>824</v>
+        <v>775</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>807</v>
+        <v>758</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -10750,10 +10750,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>825</v>
+        <v>776</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>808</v>
+        <v>759</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -10761,50 +10761,50 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>826</v>
+        <v>777</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12" t="s">
-        <v>809</v>
+        <v>760</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
-        <v>827</v>
+        <v>778</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12" t="s">
-        <v>810</v>
+        <v>761</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
-        <v>828</v>
+        <v>779</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12" t="s">
-        <v>811</v>
+        <v>762</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>829</v>
+        <v>780</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>916</v>
+        <v>867</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12" t="s">
-        <v>984</v>
+        <v>935</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>917</v>
+        <v>868</v>
       </c>
     </row>
   </sheetData>
@@ -10827,21 +10827,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>946</v>
+        <v>897</v>
       </c>
       <c r="B1" t="s">
-        <v>893</v>
+        <v>844</v>
       </c>
       <c r="C1" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>945</v>
+        <v>896</v>
       </c>
       <c r="B2" t="s">
-        <v>962</v>
+        <v>913</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -10849,167 +10849,167 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>947</v>
+        <v>898</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>985</v>
+        <v>936</v>
       </c>
       <c r="C3" t="s">
-        <v>930</v>
+        <v>881</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>948</v>
+        <v>899</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>986</v>
+        <v>937</v>
       </c>
       <c r="C4" t="s">
-        <v>931</v>
+        <v>882</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>949</v>
+        <v>900</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>987</v>
+        <v>938</v>
       </c>
       <c r="C5" t="s">
-        <v>932</v>
+        <v>883</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>950</v>
+        <v>901</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>988</v>
+        <v>939</v>
       </c>
       <c r="C6" t="s">
-        <v>933</v>
+        <v>884</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>951</v>
+        <v>902</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>989</v>
+        <v>940</v>
       </c>
       <c r="C7" t="s">
-        <v>934</v>
+        <v>885</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>952</v>
+        <v>903</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>990</v>
+        <v>941</v>
       </c>
       <c r="C8" t="s">
-        <v>935</v>
+        <v>886</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>953</v>
+        <v>904</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>991</v>
+        <v>942</v>
       </c>
       <c r="C9" t="s">
-        <v>936</v>
+        <v>887</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>954</v>
+        <v>905</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>992</v>
+        <v>943</v>
       </c>
       <c r="C10" t="s">
-        <v>937</v>
+        <v>888</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>955</v>
+        <v>906</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>993</v>
+        <v>944</v>
       </c>
       <c r="C11" t="s">
-        <v>938</v>
+        <v>889</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>956</v>
+        <v>907</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>994</v>
+        <v>945</v>
       </c>
       <c r="C12" t="s">
-        <v>939</v>
+        <v>890</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>957</v>
+        <v>908</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>995</v>
+        <v>946</v>
       </c>
       <c r="C13" t="s">
-        <v>940</v>
+        <v>891</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>958</v>
+        <v>909</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>996</v>
+        <v>947</v>
       </c>
       <c r="C14" t="s">
-        <v>941</v>
+        <v>892</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>959</v>
+        <v>910</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>997</v>
+        <v>948</v>
       </c>
       <c r="C15" t="s">
-        <v>942</v>
+        <v>893</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>960</v>
+        <v>911</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>998</v>
+        <v>949</v>
       </c>
       <c r="C16" t="s">
-        <v>943</v>
+        <v>894</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>961</v>
+        <v>912</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>999</v>
+        <v>950</v>
       </c>
       <c r="C17" t="s">
-        <v>944</v>
+        <v>895</v>
       </c>
     </row>
   </sheetData>
@@ -11029,51 +11029,51 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>832</v>
+        <v>783</v>
       </c>
       <c r="B1" t="s">
-        <v>719</v>
+        <v>670</v>
       </c>
       <c r="C1" t="s">
-        <v>843</v>
+        <v>794</v>
       </c>
       <c r="D1" t="s">
-        <v>844</v>
+        <v>795</v>
       </c>
       <c r="E1" t="s">
-        <v>845</v>
+        <v>796</v>
       </c>
       <c r="F1" t="s">
-        <v>851</v>
+        <v>802</v>
       </c>
       <c r="G1" t="s">
-        <v>852</v>
+        <v>803</v>
       </c>
       <c r="H1" t="s">
-        <v>859</v>
+        <v>810</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>833</v>
+        <v>784</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>962</v>
+        <v>913</v>
       </c>
       <c r="D2" t="s">
-        <v>846</v>
+        <v>797</v>
       </c>
       <c r="E2" t="s">
-        <v>847</v>
+        <v>798</v>
       </c>
       <c r="F2" t="s">
-        <v>850</v>
+        <v>801</v>
       </c>
       <c r="G2" t="s">
-        <v>850</v>
+        <v>801</v>
       </c>
       <c r="H2" t="s">
         <v>4</v>
@@ -11088,340 +11088,340 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>1092</v>
+        <v>1043</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>962</v>
+        <v>913</v>
       </c>
       <c r="D2" t="s">
-        <v>1093</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>833</v>
+        <v>784</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1081</v>
+        <v>1032</v>
       </c>
       <c r="D3" t="s">
-        <v>834</v>
+        <v>785</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>835</v>
+        <v>786</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1082</v>
+        <v>1033</v>
       </c>
       <c r="D4" t="s">
-        <v>836</v>
+        <v>787</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>837</v>
+        <v>788</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1083</v>
+        <v>1034</v>
       </c>
       <c r="D5" t="s">
-        <v>838</v>
+        <v>789</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>839</v>
+        <v>790</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>1084</v>
+        <v>1035</v>
       </c>
       <c r="D6" t="s">
-        <v>840</v>
+        <v>791</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>841</v>
+        <v>792</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1085</v>
+        <v>1036</v>
       </c>
       <c r="D7" t="s">
-        <v>842</v>
+        <v>793</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>848</v>
+        <v>799</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>1086</v>
+        <v>1037</v>
       </c>
       <c r="D8" t="s">
-        <v>849</v>
+        <v>800</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>853</v>
+        <v>804</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1087</v>
+        <v>1038</v>
       </c>
       <c r="D9" t="s">
-        <v>854</v>
+        <v>805</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>855</v>
+        <v>806</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1088</v>
+        <v>1039</v>
       </c>
       <c r="D10" t="s">
-        <v>856</v>
+        <v>807</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>857</v>
+        <v>808</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>1089</v>
+        <v>1040</v>
       </c>
       <c r="D11" t="s">
-        <v>858</v>
+        <v>809</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>875</v>
+        <v>826</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>1090</v>
+        <v>1041</v>
       </c>
       <c r="D12" t="s">
-        <v>876</v>
+        <v>827</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>883</v>
+        <v>834</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>1091</v>
+        <v>1042</v>
       </c>
       <c r="D13" t="s">
-        <v>884</v>
+        <v>835</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
+        <v>996</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>1045</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>1094</v>
-      </c>
       <c r="D14" t="s">
-        <v>1046</v>
+        <v>997</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>1047</v>
+        <v>998</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1095</v>
+        <v>1046</v>
       </c>
       <c r="D15" t="s">
-        <v>1048</v>
+        <v>999</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>1049</v>
+        <v>1000</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1096</v>
+        <v>1047</v>
       </c>
       <c r="D16" t="s">
-        <v>1050</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>1051</v>
+        <v>1002</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1097</v>
+        <v>1048</v>
       </c>
       <c r="D17" t="s">
-        <v>1052</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>1053</v>
+        <v>1004</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1098</v>
+        <v>1049</v>
       </c>
       <c r="D18" t="s">
-        <v>1054</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>1055</v>
+        <v>1006</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1099</v>
+        <v>1050</v>
       </c>
       <c r="D19" t="s">
-        <v>1056</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>1057</v>
+        <v>1008</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1100</v>
+        <v>1051</v>
       </c>
       <c r="D20" t="s">
-        <v>1058</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>1059</v>
+        <v>1010</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1101</v>
+        <v>1052</v>
       </c>
       <c r="D21" t="s">
-        <v>1060</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>1061</v>
+        <v>1012</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1102</v>
+        <v>1053</v>
       </c>
       <c r="D22" t="s">
-        <v>1062</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>1063</v>
+        <v>1014</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1103</v>
+        <v>1054</v>
       </c>
       <c r="D23" t="s">
-        <v>1064</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>1065</v>
+        <v>1016</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1104</v>
+        <v>1055</v>
       </c>
       <c r="D24" t="s">
-        <v>1066</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>1067</v>
+        <v>1018</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1105</v>
+        <v>1056</v>
       </c>
       <c r="D25" t="s">
-        <v>1068</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>1069</v>
+        <v>1020</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1106</v>
+        <v>1057</v>
       </c>
       <c r="D26" t="s">
-        <v>1070</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>1071</v>
+        <v>1022</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>1107</v>
+        <v>1058</v>
       </c>
       <c r="D27" t="s">
-        <v>1072</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>1073</v>
+        <v>1024</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>1108</v>
+        <v>1059</v>
       </c>
       <c r="D28" t="s">
-        <v>1074</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>1075</v>
+        <v>1026</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>1109</v>
+        <v>1060</v>
       </c>
       <c r="D29" t="s">
-        <v>1076</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>1077</v>
+        <v>1028</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>1110</v>
+        <v>1061</v>
       </c>
       <c r="D30" t="s">
-        <v>1078</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>1079</v>
+        <v>1030</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>1111</v>
+        <v>1062</v>
       </c>
       <c r="D31" t="s">
-        <v>1080</v>
+        <v>1031</v>
       </c>
     </row>
   </sheetData>
@@ -11441,42 +11441,42 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>860</v>
+        <v>811</v>
       </c>
       <c r="B1" t="s">
-        <v>861</v>
+        <v>812</v>
       </c>
       <c r="C1" t="s">
-        <v>863</v>
+        <v>814</v>
       </c>
       <c r="D1" t="s">
-        <v>719</v>
+        <v>670</v>
       </c>
       <c r="E1" t="s">
-        <v>866</v>
+        <v>817</v>
       </c>
       <c r="F1" t="s">
-        <v>870</v>
+        <v>821</v>
       </c>
       <c r="G1" t="s">
-        <v>869</v>
+        <v>820</v>
       </c>
       <c r="H1" t="s">
-        <v>871</v>
+        <v>822</v>
       </c>
       <c r="I1" t="s">
-        <v>872</v>
+        <v>823</v>
       </c>
       <c r="J1" t="s">
-        <v>873</v>
+        <v>824</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>798</v>
+        <v>749</v>
       </c>
       <c r="B2" t="s">
-        <v>850</v>
+        <v>801</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -11485,36 +11485,36 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>867</v>
+        <v>818</v>
       </c>
       <c r="F2" t="s">
-        <v>867</v>
+        <v>818</v>
       </c>
       <c r="G2" t="s">
-        <v>850</v>
+        <v>801</v>
       </c>
       <c r="H2" t="s">
-        <v>850</v>
+        <v>801</v>
       </c>
       <c r="I2" t="s">
-        <v>850</v>
+        <v>801</v>
       </c>
       <c r="J2" t="s">
-        <v>874</v>
+        <v>825</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>862</v>
+        <v>813</v>
       </c>
       <c r="C3" t="s">
-        <v>865</v>
+        <v>816</v>
       </c>
       <c r="D3" t="s">
-        <v>864</v>
+        <v>815</v>
       </c>
       <c r="E3" t="s">
-        <v>868</v>
+        <v>819</v>
       </c>
     </row>
   </sheetData>
@@ -11532,24 +11532,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>880</v>
+        <v>831</v>
       </c>
       <c r="B1" t="s">
-        <v>881</v>
+        <v>832</v>
       </c>
       <c r="C1" t="s">
-        <v>882</v>
+        <v>833</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>880</v>
+        <v>831</v>
       </c>
       <c r="B2" t="s">
-        <v>875</v>
+        <v>826</v>
       </c>
       <c r="C2" t="s">
-        <v>867</v>
+        <v>818</v>
       </c>
     </row>
   </sheetData>
@@ -11567,27 +11567,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>883</v>
+        <v>834</v>
       </c>
       <c r="B1" t="s">
-        <v>877</v>
+        <v>828</v>
       </c>
       <c r="C1" t="s">
-        <v>879</v>
+        <v>830</v>
       </c>
       <c r="D1" t="s">
-        <v>885</v>
+        <v>836</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>883</v>
+        <v>834</v>
       </c>
       <c r="B2" t="s">
-        <v>878</v>
+        <v>829</v>
       </c>
       <c r="C2" t="s">
-        <v>867</v>
+        <v>818</v>
       </c>
     </row>
   </sheetData>

--- a/Blik/Requirements.xlsx
+++ b/Blik/Requirements.xlsx
@@ -19,7 +19,7 @@
     <sheet name="Rollen" sheetId="14" r:id="rId10"/>
     <sheet name="Eenheden" sheetId="15" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -5024,10 +5024,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K194"/>
+  <dimension ref="A2:K195"/>
   <sheetViews>
-    <sheetView topLeftCell="E117" workbookViewId="0">
-      <selection activeCell="F120" sqref="F120"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5043,115 +5043,82 @@
     <col min="11" max="11" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>994</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>990</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>993</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>671</v>
-      </c>
-    </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>991</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>992</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>982</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>987</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>672</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5" t="s">
-        <v>1074</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>914</v>
+        <v>175</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>982</v>
@@ -5163,25 +5130,25 @@
         <v>69</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>319</v>
+        <v>672</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>673</v>
+        <v>176</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>182</v>
+        <v>81</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>914</v>
@@ -5196,16 +5163,16 @@
         <v>69</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>321</v>
+        <v>673</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>80</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>96</v>
+        <v>182</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5" t="s">
@@ -5214,46 +5181,46 @@
     </row>
     <row r="6" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>175</v>
+        <v>914</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>983</v>
+        <v>987</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>69</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>177</v>
+        <v>320</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>178</v>
+        <v>321</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="5" t="s">
-        <v>179</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J6" s="5"/>
       <c r="K6" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>983</v>
@@ -5262,28 +5229,28 @@
         <v>69</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>71</v>
+        <v>177</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>72</v>
+        <v>178</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J7" s="5"/>
+        <v>110</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="5" t="s">
+        <v>179</v>
+      </c>
       <c r="K7" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>995</v>
+        <v>70</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>982</v>
@@ -5294,15 +5261,17 @@
       <c r="E8" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="G8" s="3"/>
+      <c r="F8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="H8" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5" t="s">
@@ -5311,31 +5280,29 @@
     </row>
     <row r="9" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>70</v>
+        <v>995</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>69</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>76</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G9" s="3"/>
       <c r="H9" s="3" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>674</v>
+        <v>81</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5" t="s">
@@ -5344,43 +5311,43 @@
     </row>
     <row r="10" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>69</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>181</v>
+        <v>76</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>182</v>
+        <v>674</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>984</v>
@@ -5392,25 +5359,25 @@
         <v>69</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>81</v>
+        <v>182</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>70</v>
@@ -5425,28 +5392,28 @@
         <v>69</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>984</v>
@@ -5458,28 +5425,28 @@
         <v>69</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>183</v>
+        <v>82</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>158</v>
+        <v>84</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>185</v>
+        <v>85</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>984</v>
@@ -5491,30 +5458,28 @@
         <v>69</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>675</v>
+        <v>183</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>139</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="J14" s="5"/>
       <c r="K14" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>984</v>
@@ -5526,19 +5491,19 @@
         <v>69</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>86</v>
+        <v>675</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>1074</v>
@@ -5546,7 +5511,7 @@
     </row>
     <row r="16" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>70</v>
@@ -5561,25 +5526,27 @@
         <v>69</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="J16" s="5"/>
+        <v>88</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="K16" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>70</v>
@@ -5594,13 +5561,13 @@
         <v>69</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>74</v>
@@ -5610,12 +5577,12 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>984</v>
@@ -5627,13 +5594,13 @@
         <v>69</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>186</v>
+        <v>92</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>187</v>
+        <v>93</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>74</v>
@@ -5643,12 +5610,12 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>984</v>
@@ -5660,30 +5627,28 @@
         <v>69</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>94</v>
+        <v>186</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>95</v>
+        <v>187</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>97</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="J19" s="5"/>
       <c r="K19" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>984</v>
@@ -5695,87 +5660,93 @@
         <v>69</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>676</v>
+        <v>94</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>188</v>
+        <v>95</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="J20" s="5"/>
+        <v>96</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="K20" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>175</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>69</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>189</v>
+        <v>676</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="5" t="s">
-        <v>191</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="J21" s="5"/>
       <c r="K21" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>914</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+        <v>175</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>989</v>
+      </c>
       <c r="E22" s="3" t="s">
         <v>69</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>322</v>
+        <v>189</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>323</v>
+        <v>190</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="J22" s="5"/>
+        <v>110</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="5" t="s">
+        <v>191</v>
+      </c>
       <c r="K22" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>914</v>
@@ -5789,7 +5760,7 @@
         <v>322</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>324</v>
@@ -5804,10 +5775,10 @@
     </row>
     <row r="24" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>70</v>
+        <v>914</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -5815,28 +5786,28 @@
         <v>69</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>98</v>
+        <v>322</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>99</v>
+        <v>325</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>73</v>
+        <v>324</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="J24" s="5"/>
       <c r="K24" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -5844,13 +5815,13 @@
         <v>69</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>192</v>
+        <v>98</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>193</v>
+        <v>99</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>81</v>
@@ -5860,9 +5831,9 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>175</v>
@@ -5873,28 +5844,28 @@
         <v>69</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>84</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>182</v>
+        <v>81</v>
       </c>
       <c r="J26" s="5"/>
       <c r="K26" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -5902,28 +5873,28 @@
         <v>69</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>724</v>
+        <v>194</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>100</v>
+        <v>195</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>96</v>
+        <v>182</v>
       </c>
       <c r="J27" s="5"/>
       <c r="K27" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -5931,28 +5902,28 @@
         <v>69</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>196</v>
+        <v>724</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>197</v>
+        <v>100</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -5960,25 +5931,25 @@
         <v>69</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>101</v>
+        <v>196</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>102</v>
+        <v>197</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I29" s="3"/>
-      <c r="J29" s="5" t="s">
-        <v>103</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J29" s="5"/>
       <c r="K29" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>70</v>
@@ -5986,51 +5957,51 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>106</v>
+        <v>69</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>104</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="I30" s="3"/>
       <c r="J30" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="K30" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="B31" s="4"/>
+        <v>508</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
         <v>104</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>378</v>
+        <v>105</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>379</v>
+        <v>106</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>380</v>
+        <v>104</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>381</v>
+        <v>107</v>
       </c>
       <c r="K31" s="5" t="s">
         <v>1074</v>
@@ -6038,7 +6009,7 @@
     </row>
     <row r="32" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="3"/>
@@ -6047,16 +6018,16 @@
         <v>104</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>113</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>104</v>
+        <v>380</v>
       </c>
       <c r="J32" s="5" t="s">
         <v>381</v>
@@ -6065,9 +6036,9 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="3"/>
@@ -6076,27 +6047,27 @@
         <v>104</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>104</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="K33" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="3"/>
@@ -6105,25 +6076,27 @@
         <v>104</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>677</v>
+        <v>384</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="J34" s="5"/>
+      <c r="J34" s="5" t="s">
+        <v>386</v>
+      </c>
       <c r="K34" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="3"/>
@@ -6132,25 +6105,25 @@
         <v>104</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>388</v>
+        <v>677</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="J35" s="5"/>
       <c r="K35" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="3"/>
@@ -6159,25 +6132,25 @@
         <v>104</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>77</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="J36" s="5"/>
       <c r="K36" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="3"/>
@@ -6185,16 +6158,16 @@
       <c r="E37" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>393</v>
+      <c r="F37" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>391</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="I37" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I37" s="4" t="s">
         <v>104</v>
       </c>
       <c r="J37" s="5"/>
@@ -6202,9 +6175,9 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="3"/>
@@ -6213,13 +6186,13 @@
         <v>104</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="I38" s="3" t="s">
         <v>104</v>
@@ -6229,9 +6202,9 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="3"/>
@@ -6240,13 +6213,13 @@
         <v>104</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="I39" s="3" t="s">
         <v>104</v>
@@ -6258,24 +6231,22 @@
     </row>
     <row r="40" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>137</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="B40" s="4"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3" t="s">
         <v>104</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>140</v>
+        <v>396</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>141</v>
+        <v>397</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="I40" s="3" t="s">
         <v>104</v>
@@ -6285,12 +6256,12 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -6298,13 +6269,13 @@
         <v>104</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>104</v>
@@ -6316,22 +6287,24 @@
     </row>
     <row r="42" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="B42" s="4"/>
+        <v>519</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
         <v>104</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>678</v>
+        <v>108</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>398</v>
+        <v>109</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>104</v>
@@ -6341,9 +6314,9 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="3"/>
@@ -6352,13 +6325,13 @@
         <v>104</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>399</v>
+        <v>678</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>104</v>
@@ -6368,9 +6341,9 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="3"/>
@@ -6379,25 +6352,25 @@
         <v>104</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>113</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>403</v>
+        <v>104</v>
       </c>
       <c r="J44" s="5"/>
       <c r="K44" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="3"/>
@@ -6406,16 +6379,16 @@
         <v>104</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>104</v>
+        <v>403</v>
       </c>
       <c r="J45" s="5"/>
       <c r="K45" s="5" t="s">
@@ -6424,24 +6397,22 @@
     </row>
     <row r="46" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>137</v>
-      </c>
+        <v>523</v>
+      </c>
+      <c r="B46" s="4"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3" t="s">
         <v>104</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>142</v>
+        <v>404</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>143</v>
+        <v>405</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>104</v>
@@ -6451,12 +6422,12 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -6464,40 +6435,42 @@
         <v>104</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="J47" s="5"/>
       <c r="K47" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="B48" s="4"/>
+        <v>525</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3" t="s">
         <v>104</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>406</v>
+        <v>111</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>407</v>
+        <v>112</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>114</v>
@@ -6509,27 +6482,25 @@
     </row>
     <row r="49" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>914</v>
-      </c>
+        <v>526</v>
+      </c>
+      <c r="B49" s="4"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3" t="s">
         <v>104</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>326</v>
+        <v>406</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>327</v>
+        <v>407</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>328</v>
+        <v>114</v>
       </c>
       <c r="J49" s="5"/>
       <c r="K49" s="5" t="s">
@@ -6538,10 +6509,10 @@
     </row>
     <row r="50" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>172</v>
+        <v>914</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -6549,26 +6520,28 @@
         <v>104</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="G50" s="3"/>
+        <v>326</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>327</v>
+      </c>
       <c r="H50" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="I50" s="3"/>
-      <c r="J50" s="5" t="s">
-        <v>174</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="J50" s="5"/>
       <c r="K50" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>70</v>
+        <v>172</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -6576,25 +6549,23 @@
         <v>104</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>116</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="G51" s="3"/>
       <c r="H51" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J51" s="5"/>
+        <v>158</v>
+      </c>
+      <c r="I51" s="3"/>
+      <c r="J51" s="5" t="s">
+        <v>174</v>
+      </c>
       <c r="K51" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>70</v>
@@ -6605,13 +6576,13 @@
         <v>104</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>104</v>
@@ -6621,12 +6592,12 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>914</v>
+        <v>70</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -6634,28 +6605,28 @@
         <v>104</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>329</v>
+        <v>117</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>330</v>
+        <v>118</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="J53" s="5"/>
       <c r="K53" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>137</v>
+        <v>914</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -6663,30 +6634,28 @@
         <v>104</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>144</v>
+        <v>329</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>145</v>
+        <v>330</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J54" s="5" t="s">
-        <v>146</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="J54" s="5"/>
       <c r="K54" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -6694,25 +6663,27 @@
         <v>104</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J55" s="5"/>
+        <v>123</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="K55" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>70</v>
@@ -6723,16 +6694,16 @@
         <v>104</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="J56" s="5"/>
       <c r="K56" s="5" t="s">
@@ -6741,10 +6712,10 @@
     </row>
     <row r="57" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>370</v>
+        <v>70</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -6752,30 +6723,28 @@
         <v>104</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>371</v>
+        <v>121</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>372</v>
+        <v>122</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="J57" s="5" t="s">
-        <v>373</v>
-      </c>
+      <c r="J57" s="5"/>
       <c r="K57" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>70</v>
+        <v>370</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -6783,28 +6752,30 @@
         <v>104</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>679</v>
+        <v>371</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>124</v>
+        <v>372</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="J58" s="5"/>
+        <v>123</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>373</v>
+      </c>
       <c r="K58" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>914</v>
+        <v>70</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -6812,52 +6783,52 @@
         <v>104</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>331</v>
+        <v>679</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>332</v>
+        <v>124</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I59" s="3"/>
+        <v>113</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="J59" s="5"/>
       <c r="K59" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>304</v>
+        <v>331</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>305</v>
+        <v>332</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>306</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="I60" s="3"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>918</v>
@@ -6867,29 +6838,29 @@
       <c r="E61" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F61" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>308</v>
+      <c r="F61" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>305</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>309</v>
+        <v>133</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>306</v>
       </c>
       <c r="J61" s="5"/>
       <c r="K61" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -6897,54 +6868,56 @@
         <v>126</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>333</v>
+        <v>307</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="J62" s="5" t="s">
-        <v>336</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="J62" s="5"/>
       <c r="K62" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="B63" s="4"/>
+        <v>540</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>914</v>
+      </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3" t="s">
         <v>126</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>408</v>
+        <v>333</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>409</v>
+        <v>334</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>224</v>
+        <v>77</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="J63" s="5"/>
+        <v>335</v>
+      </c>
+      <c r="J63" s="5" t="s">
+        <v>336</v>
+      </c>
       <c r="K63" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="3"/>
@@ -6953,100 +6926,98 @@
         <v>126</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>133</v>
+        <v>224</v>
       </c>
       <c r="I64" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="J64" s="5" t="s">
-        <v>412</v>
-      </c>
+      <c r="J64" s="5"/>
       <c r="K64" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>918</v>
-      </c>
+        <v>542</v>
+      </c>
+      <c r="B65" s="4"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3" t="s">
         <v>126</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>310</v>
+        <v>410</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>311</v>
+        <v>411</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I65" s="4"/>
-      <c r="J65" s="5"/>
+        <v>133</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="J65" s="5" t="s">
+        <v>412</v>
+      </c>
       <c r="K65" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="B66" s="4"/>
+        <v>543</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>918</v>
+      </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3" t="s">
         <v>126</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>413</v>
+        <v>310</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>414</v>
+        <v>311</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="I66" s="4" t="s">
-        <v>314</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="I66" s="4"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>918</v>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="B67" s="4"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F67" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>313</v>
+      <c r="F67" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>414</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I67" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I67" s="4" t="s">
         <v>314</v>
       </c>
       <c r="J67" s="5"/>
@@ -7054,12 +7025,12 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -7067,28 +7038,28 @@
         <v>126</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>77</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="J68" s="5"/>
       <c r="K68" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>130</v>
+        <v>914</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -7096,16 +7067,16 @@
         <v>126</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>131</v>
+        <v>337</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>132</v>
+        <v>338</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>134</v>
+        <v>309</v>
       </c>
       <c r="J69" s="5"/>
       <c r="K69" s="5" t="s">
@@ -7114,7 +7085,7 @@
     </row>
     <row r="70" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>130</v>
@@ -7125,13 +7096,13 @@
         <v>126</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="I70" s="3" t="s">
         <v>134</v>
@@ -7141,12 +7112,12 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>363</v>
+        <v>130</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -7154,25 +7125,25 @@
         <v>126</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>364</v>
+        <v>135</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>365</v>
+        <v>136</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>224</v>
+        <v>80</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>366</v>
+        <v>134</v>
       </c>
       <c r="J71" s="5"/>
       <c r="K71" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>363</v>
@@ -7183,30 +7154,28 @@
         <v>126</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>77</v>
+        <v>224</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="J72" s="5" t="s">
-        <v>369</v>
-      </c>
+      <c r="J72" s="5"/>
       <c r="K72" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>914</v>
+        <v>363</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -7214,28 +7183,30 @@
         <v>126</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="J73" s="5"/>
+        <v>366</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>369</v>
+      </c>
       <c r="K73" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -7243,13 +7214,13 @@
         <v>126</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>315</v>
+        <v>339</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>316</v>
+        <v>340</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="I74" s="3" t="s">
         <v>134</v>
@@ -7259,12 +7230,12 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -7272,27 +7243,25 @@
         <v>126</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="J75" s="5" t="s">
-        <v>343</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="J75" s="5"/>
       <c r="K75" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>914</v>
@@ -7303,16 +7272,16 @@
         <v>126</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>133</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>346</v>
+        <v>314</v>
       </c>
       <c r="J76" s="5" t="s">
         <v>343</v>
@@ -7321,12 +7290,12 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -7334,28 +7303,30 @@
         <v>126</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>317</v>
+        <v>344</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>224</v>
+        <v>133</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="J77" s="5"/>
+        <v>346</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>343</v>
+      </c>
       <c r="K77" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -7363,25 +7334,25 @@
         <v>126</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>347</v>
+        <v>317</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>348</v>
+        <v>318</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>133</v>
+        <v>224</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>309</v>
+        <v>129</v>
       </c>
       <c r="J78" s="5"/>
       <c r="K78" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>914</v>
@@ -7392,25 +7363,25 @@
         <v>126</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>129</v>
+        <v>309</v>
       </c>
       <c r="J79" s="5"/>
       <c r="K79" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>914</v>
@@ -7421,27 +7392,25 @@
         <v>126</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>224</v>
+        <v>77</v>
       </c>
       <c r="I80" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="J80" s="5" t="s">
-        <v>353</v>
-      </c>
+      <c r="J80" s="5"/>
       <c r="K80" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>914</v>
@@ -7452,28 +7421,30 @@
         <v>126</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>133</v>
+        <v>224</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="J81" s="5"/>
+        <v>129</v>
+      </c>
+      <c r="J81" s="5" t="s">
+        <v>353</v>
+      </c>
       <c r="K81" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>70</v>
+        <v>914</v>
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
@@ -7481,28 +7452,28 @@
         <v>126</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>127</v>
+        <v>354</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>128</v>
+        <v>355</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>129</v>
+        <v>356</v>
       </c>
       <c r="J82" s="5"/>
       <c r="K82" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>914</v>
+        <v>70</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -7510,14 +7481,16 @@
         <v>126</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="G83" s="3"/>
+        <v>127</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="H83" s="3" t="s">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>314</v>
+        <v>129</v>
       </c>
       <c r="J83" s="5"/>
       <c r="K83" s="5" t="s">
@@ -7526,10 +7499,10 @@
     </row>
     <row r="84" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
@@ -7537,16 +7510,14 @@
         <v>126</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>362</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="G84" s="3"/>
       <c r="H84" s="3" t="s">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>360</v>
+        <v>314</v>
       </c>
       <c r="J84" s="5"/>
       <c r="K84" s="5" t="s">
@@ -7555,10 +7526,10 @@
     </row>
     <row r="85" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>914</v>
+        <v>919</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
@@ -7566,13 +7537,13 @@
         <v>126</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="I85" s="3" t="s">
         <v>360</v>
@@ -7582,55 +7553,57 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>374</v>
+        <v>914</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3" t="s">
-        <v>221</v>
+        <v>126</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>222</v>
+        <v>358</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>223</v>
+        <v>359</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>224</v>
+        <v>133</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>225</v>
+        <v>360</v>
       </c>
       <c r="J86" s="5"/>
       <c r="K86" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="B87" s="4"/>
+        <v>564</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>374</v>
+      </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="F87" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="G87" s="4" t="s">
-        <v>416</v>
+      <c r="F87" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="I87" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="I87" s="3" t="s">
         <v>225</v>
       </c>
       <c r="J87" s="5"/>
@@ -7638,9 +7611,9 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B88" s="4"/>
       <c r="C88" s="3"/>
@@ -7649,25 +7622,25 @@
         <v>221</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>419</v>
+        <v>133</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>420</v>
+        <v>225</v>
       </c>
       <c r="J88" s="5"/>
       <c r="K88" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B89" s="4"/>
       <c r="C89" s="3"/>
@@ -7676,23 +7649,25 @@
         <v>221</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I89" s="4"/>
+        <v>419</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>420</v>
+      </c>
       <c r="J89" s="5"/>
       <c r="K89" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="3"/>
@@ -7701,25 +7676,23 @@
         <v>221</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="I90" s="4" t="s">
-        <v>725</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="I90" s="4"/>
       <c r="J90" s="5"/>
       <c r="K90" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B91" s="4"/>
       <c r="C91" s="3"/>
@@ -7728,23 +7701,25 @@
         <v>221</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>264</v>
+        <v>424</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I91" s="4"/>
+        <v>133</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>725</v>
+      </c>
       <c r="J91" s="5"/>
       <c r="K91" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B92" s="4"/>
       <c r="C92" s="3"/>
@@ -7753,27 +7728,23 @@
         <v>221</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>427</v>
+        <v>264</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="I92" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="J92" s="5" t="s">
-        <v>429</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="I92" s="4"/>
+      <c r="J92" s="5"/>
       <c r="K92" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="3"/>
@@ -7782,25 +7753,27 @@
         <v>221</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>224</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>680</v>
-      </c>
-      <c r="J93" s="5"/>
+        <v>428</v>
+      </c>
+      <c r="J93" s="5" t="s">
+        <v>429</v>
+      </c>
       <c r="K93" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B94" s="4"/>
       <c r="C94" s="3"/>
@@ -7808,80 +7781,82 @@
       <c r="E94" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>433</v>
+      <c r="F94" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>431</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>434</v>
+        <v>224</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>680</v>
       </c>
       <c r="J94" s="5"/>
       <c r="K94" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>374</v>
-      </c>
+        <v>572</v>
+      </c>
+      <c r="B95" s="4"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3" t="s">
         <v>221</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>375</v>
+        <v>432</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>376</v>
+        <v>433</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>377</v>
+        <v>434</v>
       </c>
       <c r="J95" s="5"/>
       <c r="K95" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="B96" s="4"/>
+        <v>573</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>374</v>
+      </c>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3" t="s">
         <v>221</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>435</v>
+        <v>375</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>436</v>
+        <v>376</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="I96" s="3"/>
+        <v>80</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>377</v>
+      </c>
       <c r="J96" s="5"/>
       <c r="K96" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B97" s="4"/>
       <c r="C97" s="3"/>
@@ -7890,25 +7865,23 @@
         <v>221</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="I97" s="3" t="s">
-        <v>225</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="I97" s="3"/>
       <c r="J97" s="5"/>
       <c r="K97" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B98" s="4"/>
       <c r="C98" s="3"/>
@@ -7917,27 +7890,25 @@
         <v>221</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H98" s="3" t="s">
         <v>224</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="J98" s="5" t="s">
-        <v>442</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="J98" s="5"/>
       <c r="K98" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B99" s="4"/>
       <c r="C99" s="3"/>
@@ -7946,25 +7917,27 @@
         <v>221</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>84</v>
+        <v>224</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="J99" s="5"/>
+        <v>441</v>
+      </c>
+      <c r="J99" s="5" t="s">
+        <v>442</v>
+      </c>
       <c r="K99" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B100" s="4"/>
       <c r="C100" s="3"/>
@@ -7973,13 +7946,13 @@
         <v>221</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>445</v>
@@ -7989,9 +7962,9 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B101" s="4"/>
       <c r="C101" s="3"/>
@@ -8000,23 +7973,25 @@
         <v>221</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I101" s="3"/>
+        <v>133</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>445</v>
+      </c>
       <c r="J101" s="5"/>
       <c r="K101" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B102" s="4"/>
       <c r="C102" s="3"/>
@@ -8025,17 +8000,15 @@
         <v>221</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>454</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="I102" s="3"/>
       <c r="J102" s="5"/>
       <c r="K102" s="5" t="s">
         <v>1074</v>
@@ -8043,7 +8016,7 @@
     </row>
     <row r="103" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B103" s="4"/>
       <c r="C103" s="3"/>
@@ -8052,13 +8025,13 @@
         <v>221</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>224</v>
+        <v>419</v>
       </c>
       <c r="I103" s="3" t="s">
         <v>454</v>
@@ -8068,9 +8041,9 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B104" s="4"/>
       <c r="C104" s="3"/>
@@ -8079,27 +8052,25 @@
         <v>221</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>84</v>
+        <v>224</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="J104" s="5" t="s">
-        <v>458</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="J104" s="5"/>
       <c r="K104" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B105" s="4"/>
       <c r="C105" s="3"/>
@@ -8108,25 +8079,27 @@
         <v>221</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="J105" s="5"/>
+        <v>457</v>
+      </c>
+      <c r="J105" s="5" t="s">
+        <v>458</v>
+      </c>
       <c r="K105" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B106" s="4"/>
       <c r="C106" s="3"/>
@@ -8135,25 +8108,25 @@
         <v>221</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="J106" s="5"/>
       <c r="K106" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B107" s="4"/>
       <c r="C107" s="3"/>
@@ -8162,25 +8135,25 @@
         <v>221</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>681</v>
+        <v>462</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>224</v>
+        <v>80</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>420</v>
+        <v>464</v>
       </c>
       <c r="J107" s="5"/>
       <c r="K107" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B108" s="4"/>
       <c r="C108" s="3"/>
@@ -8189,27 +8162,25 @@
         <v>221</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>466</v>
+        <v>681</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>133</v>
+        <v>224</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="J108" s="5" t="s">
-        <v>468</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="J108" s="5"/>
       <c r="K108" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B109" s="4"/>
       <c r="C109" s="3"/>
@@ -8218,25 +8189,27 @@
         <v>221</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="J109" s="5"/>
+        <v>225</v>
+      </c>
+      <c r="J109" s="5" t="s">
+        <v>468</v>
+      </c>
       <c r="K109" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B110" s="4"/>
       <c r="C110" s="3"/>
@@ -8245,25 +8218,25 @@
         <v>221</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>419</v>
+        <v>80</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>420</v>
+        <v>471</v>
       </c>
       <c r="J110" s="5"/>
       <c r="K110" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B111" s="4"/>
       <c r="C111" s="3"/>
@@ -8272,13 +8245,13 @@
         <v>221</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>84</v>
+        <v>419</v>
       </c>
       <c r="I111" s="3" t="s">
         <v>420</v>
@@ -8288,9 +8261,9 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B112" s="4"/>
       <c r="C112" s="3"/>
@@ -8299,52 +8272,52 @@
         <v>221</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>221</v>
+        <v>420</v>
       </c>
       <c r="J112" s="5"/>
       <c r="K112" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>137</v>
-      </c>
+        <v>590</v>
+      </c>
+      <c r="B113" s="4"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3" t="s">
-        <v>147</v>
+        <v>221</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>726</v>
+        <v>476</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>727</v>
+        <v>477</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="I113" s="3"/>
+        <v>80</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>221</v>
+      </c>
       <c r="J113" s="5"/>
       <c r="K113" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>137</v>
@@ -8354,20 +8327,24 @@
       <c r="E114" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="F114" s="6" t="s">
-        <v>682</v>
-      </c>
-      <c r="G114" s="4"/>
-      <c r="H114" s="3"/>
-      <c r="I114" s="4"/>
+      <c r="F114" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="I114" s="3"/>
       <c r="J114" s="5"/>
       <c r="K114" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>137</v>
@@ -8378,23 +8355,19 @@
         <v>147</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>683</v>
-      </c>
-      <c r="G115" s="4" t="s">
-        <v>728</v>
-      </c>
-      <c r="H115" s="3" t="s">
-        <v>149</v>
-      </c>
+        <v>682</v>
+      </c>
+      <c r="G115" s="4"/>
+      <c r="H115" s="3"/>
       <c r="I115" s="4"/>
       <c r="J115" s="5"/>
       <c r="K115" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>137</v>
@@ -8405,13 +8378,13 @@
         <v>147</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>150</v>
+        <v>728</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="I116" s="4"/>
       <c r="J116" s="5"/>
@@ -8419,9 +8392,9 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>137</v>
@@ -8432,25 +8405,23 @@
         <v>147</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="I117" s="4"/>
-      <c r="J117" s="5" t="s">
-        <v>153</v>
-      </c>
+      <c r="J117" s="5"/>
       <c r="K117" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>137</v>
@@ -8461,25 +8432,25 @@
         <v>147</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="I118" s="4"/>
       <c r="J118" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K118" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>137</v>
@@ -8490,23 +8461,25 @@
         <v>147</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="I119" s="4"/>
-      <c r="J119" s="5"/>
+      <c r="J119" s="5" t="s">
+        <v>155</v>
+      </c>
       <c r="K119" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>137</v>
@@ -8516,24 +8489,24 @@
       <c r="E120" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="F120" s="7" t="s">
-        <v>688</v>
-      </c>
-      <c r="G120" s="3" t="s">
-        <v>157</v>
+      <c r="F120" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="I120" s="3"/>
+        <v>156</v>
+      </c>
+      <c r="I120" s="4"/>
       <c r="J120" s="5"/>
       <c r="K120" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>137</v>
@@ -8544,13 +8517,13 @@
         <v>147</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>159</v>
+        <v>688</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="I121" s="3"/>
       <c r="J121" s="5"/>
@@ -8558,9 +8531,9 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>137</v>
@@ -8570,14 +8543,14 @@
       <c r="E122" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="F122" s="3" t="s">
-        <v>689</v>
+      <c r="F122" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="I122" s="3"/>
       <c r="J122" s="5"/>
@@ -8585,9 +8558,9 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>137</v>
@@ -8597,26 +8570,24 @@
       <c r="E123" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="F123" s="7" t="s">
-        <v>690</v>
+      <c r="F123" s="3" t="s">
+        <v>689</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="I123" s="3"/>
-      <c r="J123" s="5" t="s">
-        <v>164</v>
-      </c>
+      <c r="J123" s="5"/>
       <c r="K123" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>137</v>
@@ -8627,23 +8598,25 @@
         <v>147</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="I124" s="3"/>
-      <c r="J124" s="5"/>
+      <c r="J124" s="5" t="s">
+        <v>164</v>
+      </c>
       <c r="K124" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>137</v>
@@ -8654,13 +8627,13 @@
         <v>147</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>729</v>
+        <v>165</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="I125" s="3"/>
       <c r="J125" s="5"/>
@@ -8668,9 +8641,9 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>137</v>
@@ -8681,13 +8654,13 @@
         <v>147</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>730</v>
+        <v>692</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>166</v>
+        <v>729</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="I126" s="3"/>
       <c r="J126" s="5"/>
@@ -8695,9 +8668,9 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>137</v>
@@ -8708,13 +8681,13 @@
         <v>147</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>693</v>
+        <v>730</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>73</v>
+        <v>152</v>
       </c>
       <c r="I127" s="3"/>
       <c r="J127" s="5"/>
@@ -8722,9 +8695,9 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>137</v>
@@ -8735,25 +8708,23 @@
         <v>147</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>731</v>
+        <v>167</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>162</v>
+        <v>73</v>
       </c>
       <c r="I128" s="3"/>
-      <c r="J128" s="5" t="s">
-        <v>168</v>
-      </c>
+      <c r="J128" s="5"/>
       <c r="K128" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>137</v>
@@ -8764,28 +8735,28 @@
         <v>147</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>169</v>
+        <v>731</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="I129" s="3"/>
       <c r="J129" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K129" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>732</v>
+        <v>137</v>
       </c>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
@@ -8793,26 +8764,28 @@
         <v>147</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>73</v>
+        <v>149</v>
       </c>
       <c r="I130" s="3"/>
-      <c r="J130" s="5"/>
+      <c r="J130" s="5" t="s">
+        <v>170</v>
+      </c>
       <c r="K130" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>137</v>
+        <v>732</v>
       </c>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
@@ -8820,13 +8793,13 @@
         <v>147</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>733</v>
+        <v>220</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>162</v>
+        <v>73</v>
       </c>
       <c r="I131" s="3"/>
       <c r="J131" s="5"/>
@@ -8836,10 +8809,10 @@
     </row>
     <row r="132" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>175</v>
+        <v>137</v>
       </c>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
@@ -8847,13 +8820,13 @@
         <v>147</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>204</v>
+        <v>733</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="I132" s="3"/>
       <c r="J132" s="5"/>
@@ -8861,9 +8834,9 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>175</v>
@@ -8874,13 +8847,13 @@
         <v>147</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="I133" s="3"/>
       <c r="J133" s="5"/>
@@ -8888,9 +8861,9 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="134" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>175</v>
@@ -8901,13 +8874,13 @@
         <v>147</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="I134" s="3"/>
       <c r="J134" s="5"/>
@@ -8915,9 +8888,9 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="135" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>175</v>
@@ -8928,25 +8901,23 @@
         <v>147</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H135" s="3" t="s">
         <v>77</v>
       </c>
       <c r="I135" s="3"/>
-      <c r="J135" s="5" t="s">
-        <v>208</v>
-      </c>
+      <c r="J135" s="5"/>
       <c r="K135" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>175</v>
@@ -8957,23 +8928,25 @@
         <v>147</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>162</v>
+        <v>77</v>
       </c>
       <c r="I136" s="3"/>
-      <c r="J136" s="5"/>
+      <c r="J136" s="5" t="s">
+        <v>208</v>
+      </c>
       <c r="K136" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>175</v>
@@ -8984,13 +8957,13 @@
         <v>147</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="I137" s="3"/>
       <c r="J137" s="5"/>
@@ -8998,9 +8971,9 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>175</v>
@@ -9011,13 +8984,13 @@
         <v>147</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="I138" s="3"/>
       <c r="J138" s="5"/>
@@ -9025,9 +8998,9 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>175</v>
@@ -9038,13 +9011,13 @@
         <v>147</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>162</v>
+        <v>73</v>
       </c>
       <c r="I139" s="3"/>
       <c r="J139" s="5"/>
@@ -9054,7 +9027,7 @@
     </row>
     <row r="140" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>175</v>
@@ -9065,13 +9038,13 @@
         <v>147</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="I140" s="3"/>
       <c r="J140" s="5"/>
@@ -9079,9 +9052,9 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>175</v>
@@ -9092,13 +9065,13 @@
         <v>147</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="I141" s="3"/>
       <c r="J141" s="5"/>
@@ -9106,9 +9079,9 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>175</v>
@@ -9119,13 +9092,13 @@
         <v>147</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>73</v>
+        <v>162</v>
       </c>
       <c r="I142" s="3"/>
       <c r="J142" s="5"/>
@@ -9135,7 +9108,7 @@
     </row>
     <row r="143" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>175</v>
@@ -9146,13 +9119,13 @@
         <v>147</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I143" s="3"/>
       <c r="J143" s="5"/>
@@ -9160,9 +9133,9 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>175</v>
@@ -9173,23 +9146,23 @@
         <v>147</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>710</v>
-      </c>
-      <c r="G144" s="3"/>
+        <v>709</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>216</v>
+      </c>
       <c r="H144" s="3" t="s">
-        <v>162</v>
+        <v>77</v>
       </c>
       <c r="I144" s="3"/>
-      <c r="J144" s="5" t="s">
-        <v>217</v>
-      </c>
+      <c r="J144" s="5"/>
       <c r="K144" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>175</v>
@@ -9200,11 +9173,9 @@
         <v>147</v>
       </c>
       <c r="F145" s="7" t="s">
-        <v>711</v>
-      </c>
-      <c r="G145" s="3" t="s">
-        <v>218</v>
-      </c>
+        <v>710</v>
+      </c>
+      <c r="G145" s="3"/>
       <c r="H145" s="3" t="s">
         <v>162</v>
       </c>
@@ -9216,9 +9187,9 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>175</v>
@@ -9229,23 +9200,25 @@
         <v>147</v>
       </c>
       <c r="F146" s="7" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="I146" s="3"/>
-      <c r="J146" s="5"/>
+      <c r="J146" s="5" t="s">
+        <v>217</v>
+      </c>
       <c r="K146" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>175</v>
@@ -9256,13 +9229,13 @@
         <v>147</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I147" s="3"/>
       <c r="J147" s="5"/>
@@ -9272,7 +9245,7 @@
     </row>
     <row r="148" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>175</v>
@@ -9283,13 +9256,13 @@
         <v>147</v>
       </c>
       <c r="F148" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="I148" s="3"/>
       <c r="J148" s="5"/>
@@ -9297,9 +9270,9 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>175</v>
@@ -9310,10 +9283,10 @@
         <v>147</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H149" s="3" t="s">
         <v>149</v>
@@ -9324,9 +9297,9 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>175</v>
@@ -9337,11 +9310,13 @@
         <v>147</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>716</v>
-      </c>
-      <c r="G150" s="3"/>
+        <v>715</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="H150" s="3" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="I150" s="3"/>
       <c r="J150" s="5"/>
@@ -9349,9 +9324,9 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>175</v>
@@ -9362,11 +9337,9 @@
         <v>147</v>
       </c>
       <c r="F151" s="7" t="s">
-        <v>717</v>
-      </c>
-      <c r="G151" s="3" t="s">
-        <v>201</v>
-      </c>
+        <v>716</v>
+      </c>
+      <c r="G151" s="3"/>
       <c r="H151" s="3" t="s">
         <v>162</v>
       </c>
@@ -9376,9 +9349,9 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="152" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>175</v>
@@ -9389,11 +9362,13 @@
         <v>147</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>718</v>
-      </c>
-      <c r="G152" s="3"/>
+        <v>717</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>201</v>
+      </c>
       <c r="H152" s="3" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="I152" s="3"/>
       <c r="J152" s="5"/>
@@ -9401,9 +9376,9 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="153" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>175</v>
@@ -9414,13 +9389,11 @@
         <v>147</v>
       </c>
       <c r="F153" s="7" t="s">
-        <v>734</v>
-      </c>
-      <c r="G153" s="3" t="s">
-        <v>202</v>
-      </c>
+        <v>718</v>
+      </c>
+      <c r="G153" s="3"/>
       <c r="H153" s="3" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="I153" s="3"/>
       <c r="J153" s="5"/>
@@ -9428,9 +9401,9 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>175</v>
@@ -9441,9 +9414,11 @@
         <v>147</v>
       </c>
       <c r="F154" s="7" t="s">
-        <v>719</v>
-      </c>
-      <c r="G154" s="3"/>
+        <v>734</v>
+      </c>
+      <c r="G154" s="3" t="s">
+        <v>202</v>
+      </c>
       <c r="H154" s="3" t="s">
         <v>162</v>
       </c>
@@ -9455,7 +9430,7 @@
     </row>
     <row r="155" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>175</v>
@@ -9466,13 +9441,11 @@
         <v>147</v>
       </c>
       <c r="F155" s="7" t="s">
-        <v>720</v>
-      </c>
-      <c r="G155" s="3" t="s">
-        <v>203</v>
-      </c>
+        <v>719</v>
+      </c>
+      <c r="G155" s="3"/>
       <c r="H155" s="3" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="I155" s="3"/>
       <c r="J155" s="5"/>
@@ -9480,38 +9453,36 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="156" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>374</v>
+        <v>175</v>
       </c>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3" t="s">
-        <v>221</v>
+        <v>147</v>
       </c>
       <c r="F156" s="7" t="s">
-        <v>226</v>
+        <v>720</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="H156" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="I156" s="3" t="s">
-        <v>229</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="I156" s="3"/>
       <c r="J156" s="5"/>
       <c r="K156" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>374</v>
@@ -9521,14 +9492,14 @@
       <c r="E157" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="F157" s="3" t="s">
-        <v>230</v>
+      <c r="F157" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="H157" s="8" t="s">
-        <v>232</v>
+        <v>227</v>
+      </c>
+      <c r="H157" s="3" t="s">
+        <v>228</v>
       </c>
       <c r="I157" s="3" t="s">
         <v>229</v>
@@ -9538,9 +9509,9 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="158" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>374</v>
@@ -9551,13 +9522,13 @@
         <v>221</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="H158" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
+      </c>
+      <c r="H158" s="8" t="s">
+        <v>232</v>
       </c>
       <c r="I158" s="3" t="s">
         <v>229</v>
@@ -9567,9 +9538,9 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="159" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>374</v>
@@ -9579,11 +9550,11 @@
       <c r="E159" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="F159" s="9" t="s">
-        <v>735</v>
-      </c>
-      <c r="G159" s="9" t="s">
-        <v>236</v>
+      <c r="F159" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>234</v>
       </c>
       <c r="H159" s="3" t="s">
         <v>235</v>
@@ -9596,9 +9567,9 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="160" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>374</v>
@@ -9608,11 +9579,11 @@
       <c r="E160" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="F160" s="10" t="s">
-        <v>237</v>
+      <c r="F160" s="9" t="s">
+        <v>735</v>
       </c>
       <c r="G160" s="9" t="s">
-        <v>736</v>
+        <v>236</v>
       </c>
       <c r="H160" s="3" t="s">
         <v>235</v>
@@ -9627,7 +9598,7 @@
     </row>
     <row r="161" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>374</v>
@@ -9638,25 +9609,25 @@
         <v>221</v>
       </c>
       <c r="F161" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="G161" s="10" t="s">
-        <v>737</v>
+        <v>237</v>
+      </c>
+      <c r="G161" s="9" t="s">
+        <v>736</v>
       </c>
       <c r="H161" s="3" t="s">
         <v>235</v>
       </c>
       <c r="I161" s="3" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="J161" s="5"/>
       <c r="K161" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="162" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>374</v>
@@ -9666,17 +9637,17 @@
       <c r="E162" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="F162" s="8" t="s">
-        <v>240</v>
+      <c r="F162" s="10" t="s">
+        <v>238</v>
       </c>
       <c r="G162" s="10" t="s">
-        <v>241</v>
+        <v>737</v>
       </c>
       <c r="H162" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="I162" s="8" t="s">
-        <v>242</v>
+        <v>235</v>
+      </c>
+      <c r="I162" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="J162" s="5"/>
       <c r="K162" s="5" t="s">
@@ -9685,7 +9656,7 @@
     </row>
     <row r="163" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>374</v>
@@ -9695,13 +9666,13 @@
       <c r="E163" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="F163" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="G163" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="H163" s="8" t="s">
+      <c r="F163" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="G163" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="H163" s="3" t="s">
         <v>232</v>
       </c>
       <c r="I163" s="8" t="s">
@@ -9712,9 +9683,9 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>374</v>
@@ -9724,14 +9695,14 @@
       <c r="E164" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="F164" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="G164" s="10" t="s">
-        <v>246</v>
+      <c r="F164" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="G164" s="8" t="s">
+        <v>244</v>
       </c>
       <c r="H164" s="8" t="s">
-        <v>738</v>
+        <v>232</v>
       </c>
       <c r="I164" s="8" t="s">
         <v>242</v>
@@ -9741,9 +9712,9 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="165" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>374</v>
@@ -9754,13 +9725,13 @@
         <v>221</v>
       </c>
       <c r="F165" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G165" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="H165" s="10" t="s">
-        <v>232</v>
+        <v>246</v>
+      </c>
+      <c r="H165" s="8" t="s">
+        <v>738</v>
       </c>
       <c r="I165" s="8" t="s">
         <v>242</v>
@@ -9770,9 +9741,9 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>374</v>
@@ -9783,13 +9754,13 @@
         <v>221</v>
       </c>
       <c r="F166" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="G166" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="H166" s="8" t="s">
-        <v>235</v>
+        <v>247</v>
+      </c>
+      <c r="G166" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="H166" s="10" t="s">
+        <v>232</v>
       </c>
       <c r="I166" s="8" t="s">
         <v>242</v>
@@ -9799,9 +9770,9 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="167" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>374</v>
@@ -9811,14 +9782,14 @@
       <c r="E167" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="F167" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="G167" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="H167" s="3" t="s">
-        <v>228</v>
+      <c r="F167" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G167" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="H167" s="8" t="s">
+        <v>235</v>
       </c>
       <c r="I167" s="8" t="s">
         <v>242</v>
@@ -9828,9 +9799,9 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="168" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>374</v>
@@ -9841,13 +9812,13 @@
         <v>221</v>
       </c>
       <c r="F168" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="G168" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="H168" s="10" t="s">
-        <v>255</v>
+        <v>251</v>
+      </c>
+      <c r="G168" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="H168" s="3" t="s">
+        <v>228</v>
       </c>
       <c r="I168" s="8" t="s">
         <v>242</v>
@@ -9857,9 +9828,9 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>374</v>
@@ -9869,17 +9840,17 @@
       <c r="E169" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="F169" s="8" t="s">
-        <v>721</v>
+      <c r="F169" s="10" t="s">
+        <v>253</v>
       </c>
       <c r="G169" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="H169" s="8" t="s">
-        <v>232</v>
+        <v>254</v>
+      </c>
+      <c r="H169" s="10" t="s">
+        <v>255</v>
       </c>
       <c r="I169" s="8" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="J169" s="5"/>
       <c r="K169" s="5" t="s">
@@ -9888,7 +9859,7 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>374</v>
@@ -9899,7 +9870,7 @@
         <v>221</v>
       </c>
       <c r="F170" s="8" t="s">
-        <v>258</v>
+        <v>721</v>
       </c>
       <c r="G170" s="8" t="s">
         <v>256</v>
@@ -9915,9 +9886,9 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="171" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>374</v>
@@ -9927,14 +9898,14 @@
       <c r="E171" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="F171" s="10" t="s">
-        <v>259</v>
+      <c r="F171" s="8" t="s">
+        <v>258</v>
       </c>
       <c r="G171" s="8" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H171" s="8" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="I171" s="8" t="s">
         <v>257</v>
@@ -9944,9 +9915,9 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="172" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>374</v>
@@ -9956,14 +9927,14 @@
       <c r="E172" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="F172" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="G172" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="H172" s="3" t="s">
-        <v>255</v>
+      <c r="F172" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="G172" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="H172" s="8" t="s">
+        <v>235</v>
       </c>
       <c r="I172" s="8" t="s">
         <v>257</v>
@@ -9973,9 +9944,9 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>374</v>
@@ -9986,12 +9957,12 @@
         <v>221</v>
       </c>
       <c r="F173" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="G173" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="H173" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="G173" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="H173" s="3" t="s">
         <v>255</v>
       </c>
       <c r="I173" s="8" t="s">
@@ -10004,7 +9975,7 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>374</v>
@@ -10015,25 +9986,25 @@
         <v>221</v>
       </c>
       <c r="F174" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G174" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H174" s="8" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="I174" s="8" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="J174" s="5"/>
       <c r="K174" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="175" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>374</v>
@@ -10044,13 +10015,13 @@
         <v>221</v>
       </c>
       <c r="F175" s="8" t="s">
-        <v>739</v>
-      </c>
-      <c r="G175" s="10" t="s">
-        <v>268</v>
+        <v>265</v>
+      </c>
+      <c r="G175" s="8" t="s">
+        <v>266</v>
       </c>
       <c r="H175" s="8" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="I175" s="8" t="s">
         <v>267</v>
@@ -10060,9 +10031,9 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="176" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>374</v>
@@ -10072,26 +10043,26 @@
       <c r="E176" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="F176" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="G176" s="8" t="s">
-        <v>270</v>
+      <c r="F176" s="8" t="s">
+        <v>739</v>
+      </c>
+      <c r="G176" s="10" t="s">
+        <v>268</v>
       </c>
       <c r="H176" s="8" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="I176" s="8" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J176" s="5"/>
       <c r="K176" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="177" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>374</v>
@@ -10102,15 +10073,15 @@
         <v>221</v>
       </c>
       <c r="F177" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="G177" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="G177" s="8" t="s">
         <v>270</v>
       </c>
       <c r="H177" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="I177" s="10" t="s">
+      <c r="I177" s="8" t="s">
         <v>271</v>
       </c>
       <c r="J177" s="5"/>
@@ -10120,7 +10091,7 @@
     </row>
     <row r="178" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>374</v>
@@ -10131,13 +10102,13 @@
         <v>221</v>
       </c>
       <c r="F178" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G178" s="10" t="s">
         <v>270</v>
       </c>
       <c r="H178" s="8" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="I178" s="10" t="s">
         <v>271</v>
@@ -10147,9 +10118,9 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="179" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>374</v>
@@ -10160,13 +10131,13 @@
         <v>221</v>
       </c>
       <c r="F179" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G179" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="H179" s="10" t="s">
-        <v>228</v>
+      <c r="H179" s="8" t="s">
+        <v>255</v>
       </c>
       <c r="I179" s="10" t="s">
         <v>271</v>
@@ -10176,9 +10147,9 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="180" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>374</v>
@@ -10189,25 +10160,25 @@
         <v>221</v>
       </c>
       <c r="F180" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G180" s="10" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H180" s="10" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="I180" s="10" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="J180" s="5"/>
       <c r="K180" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="181" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>374</v>
@@ -10218,15 +10189,15 @@
         <v>221</v>
       </c>
       <c r="F181" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="G181" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="H181" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="I181" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="G181" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="H181" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="I181" s="10" t="s">
         <v>277</v>
       </c>
       <c r="J181" s="5"/>
@@ -10234,9 +10205,9 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="182" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>374</v>
@@ -10247,25 +10218,25 @@
         <v>221</v>
       </c>
       <c r="F182" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="G182" s="10" t="s">
-        <v>281</v>
+        <v>278</v>
+      </c>
+      <c r="G182" s="8" t="s">
+        <v>279</v>
       </c>
       <c r="H182" s="8" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="I182" s="8" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="J182" s="5"/>
       <c r="K182" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="183" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>374</v>
@@ -10276,13 +10247,13 @@
         <v>221</v>
       </c>
       <c r="F183" s="10" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G183" s="10" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H183" s="8" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="I183" s="8" t="s">
         <v>282</v>
@@ -10294,7 +10265,7 @@
     </row>
     <row r="184" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>374</v>
@@ -10302,42 +10273,42 @@
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F184" s="3" t="s">
-        <v>740</v>
+        <v>221</v>
+      </c>
+      <c r="F184" s="10" t="s">
+        <v>283</v>
       </c>
       <c r="G184" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="H184" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="I184" s="10" t="s">
-        <v>287</v>
+        <v>284</v>
+      </c>
+      <c r="H184" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="I184" s="8" t="s">
+        <v>282</v>
       </c>
       <c r="J184" s="5"/>
       <c r="K184" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="185" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="C185" s="9"/>
-      <c r="D185" s="9"/>
-      <c r="E185" s="10" t="s">
+      <c r="C185" s="3"/>
+      <c r="D185" s="3"/>
+      <c r="E185" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="F185" s="10" t="s">
-        <v>288</v>
+      <c r="F185" s="3" t="s">
+        <v>740</v>
       </c>
       <c r="G185" s="10" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H185" s="10" t="s">
         <v>286</v>
@@ -10350,9 +10321,9 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="186" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>374</v>
@@ -10363,25 +10334,25 @@
         <v>129</v>
       </c>
       <c r="F186" s="10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G186" s="10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H186" s="10" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="I186" s="10" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="J186" s="5"/>
       <c r="K186" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="187" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>374</v>
@@ -10392,13 +10363,13 @@
         <v>129</v>
       </c>
       <c r="F187" s="10" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G187" s="10" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H187" s="10" t="s">
-        <v>232</v>
+        <v>292</v>
       </c>
       <c r="I187" s="10" t="s">
         <v>293</v>
@@ -10410,7 +10381,7 @@
     </row>
     <row r="188" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>374</v>
@@ -10421,25 +10392,25 @@
         <v>129</v>
       </c>
       <c r="F188" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G188" s="10" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H188" s="10" t="s">
-        <v>286</v>
+        <v>232</v>
       </c>
       <c r="I188" s="10" t="s">
-        <v>722</v>
+        <v>293</v>
       </c>
       <c r="J188" s="5"/>
       <c r="K188" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="189" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>374</v>
@@ -10450,25 +10421,25 @@
         <v>129</v>
       </c>
       <c r="F189" s="10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G189" s="10" t="s">
-        <v>723</v>
-      </c>
-      <c r="H189" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="I189" s="8" t="s">
-        <v>299</v>
+        <v>297</v>
+      </c>
+      <c r="H189" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I189" s="10" t="s">
+        <v>722</v>
       </c>
       <c r="J189" s="5"/>
       <c r="K189" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="190" spans="1:11" ht="153" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>374</v>
@@ -10478,26 +10449,26 @@
       <c r="E190" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="F190" s="8" t="s">
-        <v>300</v>
+      <c r="F190" s="10" t="s">
+        <v>298</v>
       </c>
       <c r="G190" s="10" t="s">
-        <v>741</v>
+        <v>723</v>
       </c>
       <c r="H190" s="8" t="s">
-        <v>286</v>
+        <v>228</v>
       </c>
       <c r="I190" s="8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="J190" s="5"/>
       <c r="K190" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="191" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11" ht="153" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>374</v>
@@ -10507,16 +10478,16 @@
       <c r="E191" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="F191" s="10" t="s">
-        <v>302</v>
+      <c r="F191" s="8" t="s">
+        <v>300</v>
       </c>
       <c r="G191" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="H191" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="I191" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="H191" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="I191" s="8" t="s">
         <v>301</v>
       </c>
       <c r="J191" s="5"/>
@@ -10524,24 +10495,53 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A192" s="3"/>
-      <c r="B192" s="4"/>
+    <row r="192" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A192" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>374</v>
+      </c>
       <c r="C192" s="9"/>
       <c r="D192" s="9"/>
-      <c r="E192" s="10"/>
-      <c r="F192" s="10"/>
-      <c r="G192" s="10"/>
-      <c r="H192" s="10"/>
-      <c r="I192" s="10"/>
+      <c r="E192" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F192" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="G192" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="H192" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="I192" s="10" t="s">
+        <v>301</v>
+      </c>
       <c r="J192" s="5"/>
-      <c r="K192" s="5"/>
-    </row>
-    <row r="193" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G193" s="11"/>
-    </row>
-    <row r="194" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="K192" s="5" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A193" s="3"/>
+      <c r="B193" s="4"/>
+      <c r="C193" s="9"/>
+      <c r="D193" s="9"/>
+      <c r="E193" s="10"/>
+      <c r="F193" s="10"/>
+      <c r="G193" s="10"/>
+      <c r="H193" s="10"/>
+      <c r="I193" s="10"/>
+      <c r="J193" s="5"/>
+      <c r="K193" s="5"/>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G194" s="11"/>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G195" s="11"/>
     </row>
   </sheetData>
   <sortState ref="A3:I191">
